--- a/ShareGate/Migration/Skade/Ansvar to Skade.xlsx
+++ b/ShareGate/Migration/Skade/Ansvar to Skade.xlsx
@@ -7,7 +7,7 @@
     <x:workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Data" sheetId="1" r:id="R0165a19002344a6c"/>
+    <x:sheet name="Data" sheetId="1" r:id="R959a593d4a5344bb"/>
   </x:sheets>
   <x:calcPr calcId="145621"/>
 </x:workbook>
@@ -545,7 +545,7 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2" s="1" t="n">
-        <x:v>43305.5959549769</x:v>
+        <x:v>43311.4734530093</x:v>
       </x:c>
       <x:c r="B2" s="3" t="str">
         <x:v>Success</x:v>
@@ -560,10 +560,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F2" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G2" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141808_236</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730112144_597</x:v>
       </x:c>
       <x:c r="H2" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -587,7 +587,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O2" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P2">
         <x:v/>
@@ -611,10 +611,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W2" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X2" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y2" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -641,7 +641,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG2" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH2" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -676,7 +676,7 @@
     </x:row>
     <x:row r="3">
       <x:c r="A3" s="1" t="n">
-        <x:v>43305.5956829861</x:v>
+        <x:v>43311.4732062153</x:v>
       </x:c>
       <x:c r="B3" s="3" t="str">
         <x:v>Success</x:v>
@@ -691,10 +691,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F3" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G3" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141745_235</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730112122_596</x:v>
       </x:c>
       <x:c r="H3" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -718,7 +718,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O3" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P3">
         <x:v/>
@@ -742,10 +742,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W3" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X3" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y3" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -772,7 +772,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG3" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH3" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -807,7 +807,7 @@
     </x:row>
     <x:row r="4">
       <x:c r="A4" s="1" t="n">
-        <x:v>43305.594947581</x:v>
+        <x:v>43311.4724441551</x:v>
       </x:c>
       <x:c r="B4" s="3" t="str">
         <x:v>Success</x:v>
@@ -822,10 +822,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F4" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G4" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141639_234</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730112014_595</x:v>
       </x:c>
       <x:c r="H4" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -849,7 +849,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O4" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P4">
         <x:v/>
@@ -873,10 +873,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W4" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X4" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y4" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -903,7 +903,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG4" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH4" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -938,7 +938,7 @@
     </x:row>
     <x:row r="5">
       <x:c r="A5" s="1" t="n">
-        <x:v>43305.5943546875</x:v>
+        <x:v>43311.4719412153</x:v>
       </x:c>
       <x:c r="B5" s="3" t="str">
         <x:v>Success</x:v>
@@ -953,10 +953,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F5" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G5" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141549_233</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111932_594</x:v>
       </x:c>
       <x:c r="H5" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -980,7 +980,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O5" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P5">
         <x:v/>
@@ -1004,10 +1004,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W5" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X5" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y5" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -1034,7 +1034,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG5" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH5" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -1069,7 +1069,7 @@
     </x:row>
     <x:row r="6">
       <x:c r="A6" s="1" t="n">
-        <x:v>43305.5941589352</x:v>
+        <x:v>43311.4717564931</x:v>
       </x:c>
       <x:c r="B6" s="3" t="str">
         <x:v>Success</x:v>
@@ -1084,10 +1084,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F6" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G6" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141533_232</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111918_593</x:v>
       </x:c>
       <x:c r="H6" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -1111,7 +1111,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O6" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P6">
         <x:v/>
@@ -1135,10 +1135,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W6" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X6" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y6" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -1165,7 +1165,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG6" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH6" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -1200,7 +1200,7 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="1" t="n">
-        <x:v>43305.5939501273</x:v>
+        <x:v>43311.4715950231</x:v>
       </x:c>
       <x:c r="B7" s="3" t="str">
         <x:v>Success</x:v>
@@ -1215,10 +1215,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F7" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G7" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141515_231</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111904_592</x:v>
       </x:c>
       <x:c r="H7" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -1242,7 +1242,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O7" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P7">
         <x:v/>
@@ -1266,10 +1266,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W7" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X7" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y7" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -1296,7 +1296,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG7" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH7" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -1331,7 +1331,7 @@
     </x:row>
     <x:row r="8">
       <x:c r="A8" s="1" t="n">
-        <x:v>43305.5938260417</x:v>
+        <x:v>43311.4714971759</x:v>
       </x:c>
       <x:c r="B8" s="3" t="str">
         <x:v>Success</x:v>
@@ -1346,10 +1346,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F8" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G8" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141504_230</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111856_591</x:v>
       </x:c>
       <x:c r="H8" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O8" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P8">
         <x:v/>
@@ -1397,10 +1397,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W8" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X8" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y8" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -1427,7 +1427,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG8" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH8" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -1462,7 +1462,7 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9" s="1" t="n">
-        <x:v>43305.593553588</x:v>
+        <x:v>43311.4712191898</x:v>
       </x:c>
       <x:c r="B9" s="3" t="str">
         <x:v>Success</x:v>
@@ -1477,10 +1477,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F9" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G9" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141440_229</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111831_590</x:v>
       </x:c>
       <x:c r="H9" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -1504,7 +1504,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O9" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P9">
         <x:v/>
@@ -1528,10 +1528,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W9" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X9" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y9" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -1558,7 +1558,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG9" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH9" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -1593,7 +1593,7 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" s="1" t="n">
-        <x:v>43305.5934014352</x:v>
+        <x:v>43311.4710723264</x:v>
       </x:c>
       <x:c r="B10" s="3" t="str">
         <x:v>Success</x:v>
@@ -1608,10 +1608,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F10" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G10" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141427_228</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111819_589</x:v>
       </x:c>
       <x:c r="H10" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -1635,7 +1635,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O10" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P10">
         <x:v/>
@@ -1659,10 +1659,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W10" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X10" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y10" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -1689,7 +1689,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG10" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH10" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -1724,7 +1724,7 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11" s="1" t="n">
-        <x:v>43305.5931060995</x:v>
+        <x:v>43311.4708247685</x:v>
       </x:c>
       <x:c r="B11" s="3" t="str">
         <x:v>Success</x:v>
@@ -1739,10 +1739,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F11" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G11" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141402_227</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111757_588</x:v>
       </x:c>
       <x:c r="H11" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -1766,7 +1766,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O11" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P11">
         <x:v/>
@@ -1790,10 +1790,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W11" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X11" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y11" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -1820,7 +1820,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG11" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH11" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -1855,7 +1855,7 @@
     </x:row>
     <x:row r="12">
       <x:c r="A12" s="1" t="n">
-        <x:v>43305.5929174653</x:v>
+        <x:v>43311.4706346875</x:v>
       </x:c>
       <x:c r="B12" s="3" t="str">
         <x:v>Success</x:v>
@@ -1870,10 +1870,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F12" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G12" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141346_226</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111741_587</x:v>
       </x:c>
       <x:c r="H12" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -1897,7 +1897,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O12" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P12">
         <x:v/>
@@ -1921,10 +1921,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W12" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X12" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y12" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -1951,7 +1951,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG12" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH12" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -1986,7 +1986,7 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13" s="1" t="n">
-        <x:v>43305.5928093056</x:v>
+        <x:v>43311.4705278588</x:v>
       </x:c>
       <x:c r="B13" s="3" t="str">
         <x:v>Success</x:v>
@@ -2001,10 +2001,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F13" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G13" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141337_225</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111732_586</x:v>
       </x:c>
       <x:c r="H13" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -2028,7 +2028,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O13" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P13">
         <x:v/>
@@ -2052,10 +2052,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W13" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X13" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y13" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -2082,7 +2082,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG13" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH13" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -2117,7 +2117,7 @@
     </x:row>
     <x:row r="14">
       <x:c r="A14" s="1" t="n">
-        <x:v>43305.5925785532</x:v>
+        <x:v>43311.4702983333</x:v>
       </x:c>
       <x:c r="B14" s="3" t="str">
         <x:v>Success</x:v>
@@ -2132,10 +2132,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F14" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G14" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141316_224</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111712_585</x:v>
       </x:c>
       <x:c r="H14" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O14" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P14">
         <x:v/>
@@ -2183,10 +2183,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W14" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X14" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y14" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -2213,7 +2213,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG14" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH14" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -2248,7 +2248,7 @@
     </x:row>
     <x:row r="15">
       <x:c r="A15" s="1" t="n">
-        <x:v>43305.5923469676</x:v>
+        <x:v>43311.4700927778</x:v>
       </x:c>
       <x:c r="B15" s="3" t="str">
         <x:v>Success</x:v>
@@ -2263,10 +2263,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F15" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G15" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141256_223</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111654_584</x:v>
       </x:c>
       <x:c r="H15" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -2290,7 +2290,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O15" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P15">
         <x:v/>
@@ -2314,10 +2314,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W15" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X15" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y15" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -2344,7 +2344,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG15" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH15" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -2379,7 +2379,7 @@
     </x:row>
     <x:row r="16">
       <x:c r="A16" s="1" t="n">
-        <x:v>43305.5921431366</x:v>
+        <x:v>43311.469899456</x:v>
       </x:c>
       <x:c r="B16" s="3" t="str">
         <x:v>Success</x:v>
@@ -2394,10 +2394,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F16" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G16" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141239_222</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111637_583</x:v>
       </x:c>
       <x:c r="H16" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -2421,7 +2421,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O16" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P16">
         <x:v/>
@@ -2445,10 +2445,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W16" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X16" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y16" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -2475,7 +2475,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG16" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH16" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -2510,7 +2510,7 @@
     </x:row>
     <x:row r="17">
       <x:c r="A17" s="1" t="n">
-        <x:v>43305.5919816088</x:v>
+        <x:v>43311.4697303935</x:v>
       </x:c>
       <x:c r="B17" s="3" t="str">
         <x:v>Success</x:v>
@@ -2525,10 +2525,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F17" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G17" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141225_221</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111623_582</x:v>
       </x:c>
       <x:c r="H17" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -2552,7 +2552,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O17" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P17">
         <x:v/>
@@ -2576,10 +2576,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W17" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X17" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y17" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -2606,7 +2606,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG17" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH17" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -2641,7 +2641,7 @@
     </x:row>
     <x:row r="18">
       <x:c r="A18" s="1" t="n">
-        <x:v>43305.5917575694</x:v>
+        <x:v>43311.4694851736</x:v>
       </x:c>
       <x:c r="B18" s="3" t="str">
         <x:v>Success</x:v>
@@ -2656,10 +2656,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F18" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G18" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141206_220</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111602_581</x:v>
       </x:c>
       <x:c r="H18" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -2683,7 +2683,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O18" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P18">
         <x:v/>
@@ -2707,10 +2707,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W18" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X18" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y18" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -2737,7 +2737,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG18" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH18" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -2772,7 +2772,7 @@
     </x:row>
     <x:row r="19">
       <x:c r="A19" s="1" t="n">
-        <x:v>43305.591575081</x:v>
+        <x:v>43311.4692989352</x:v>
       </x:c>
       <x:c r="B19" s="3" t="str">
         <x:v>Success</x:v>
@@ -2787,10 +2787,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F19" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G19" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141150_219</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111545_580</x:v>
       </x:c>
       <x:c r="H19" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -2814,7 +2814,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O19" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P19">
         <x:v/>
@@ -2838,10 +2838,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W19" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X19" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y19" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -2868,7 +2868,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG19" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH19" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -2903,7 +2903,7 @@
     </x:row>
     <x:row r="20">
       <x:c r="A20" s="1" t="n">
-        <x:v>43305.5914213426</x:v>
+        <x:v>43311.4691506713</x:v>
       </x:c>
       <x:c r="B20" s="3" t="str">
         <x:v>Success</x:v>
@@ -2918,10 +2918,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F20" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G20" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141137_218</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111533_579</x:v>
       </x:c>
       <x:c r="H20" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -2945,7 +2945,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O20" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P20">
         <x:v/>
@@ -2969,10 +2969,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W20" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X20" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y20" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -2999,7 +2999,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG20" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH20" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -3034,7 +3034,7 @@
     </x:row>
     <x:row r="21">
       <x:c r="A21" s="1" t="n">
-        <x:v>43305.5913575463</x:v>
+        <x:v>43311.4690815741</x:v>
       </x:c>
       <x:c r="B21" s="3" t="str">
         <x:v>Success</x:v>
@@ -3049,10 +3049,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F21" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G21" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141131_217</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111527_578</x:v>
       </x:c>
       <x:c r="H21" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -3076,7 +3076,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O21" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P21">
         <x:v/>
@@ -3100,10 +3100,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W21" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X21" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y21" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -3130,7 +3130,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG21" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH21" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -3165,7 +3165,7 @@
     </x:row>
     <x:row r="22">
       <x:c r="A22" s="1" t="n">
-        <x:v>43305.5911311574</x:v>
+        <x:v>43311.4688348958</x:v>
       </x:c>
       <x:c r="B22" s="3" t="str">
         <x:v>Success</x:v>
@@ -3180,10 +3180,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F22" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G22" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141112_216</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111505_577</x:v>
       </x:c>
       <x:c r="H22" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -3207,7 +3207,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O22" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P22">
         <x:v/>
@@ -3231,10 +3231,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W22" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X22" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y22" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -3261,7 +3261,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG22" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH22" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -3296,7 +3296,7 @@
     </x:row>
     <x:row r="23">
       <x:c r="A23" s="1" t="n">
-        <x:v>43305.5909727083</x:v>
+        <x:v>43311.4686891319</x:v>
       </x:c>
       <x:c r="B23" s="3" t="str">
         <x:v>Success</x:v>
@@ -3311,10 +3311,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F23" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G23" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141058_215</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111453_576</x:v>
       </x:c>
       <x:c r="H23" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -3338,7 +3338,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O23" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P23">
         <x:v/>
@@ -3362,10 +3362,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W23" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X23" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y23" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -3392,7 +3392,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG23" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH23" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -3427,7 +3427,7 @@
     </x:row>
     <x:row r="24">
       <x:c r="A24" s="1" t="n">
-        <x:v>43305.5907798032</x:v>
+        <x:v>43311.4684908218</x:v>
       </x:c>
       <x:c r="B24" s="3" t="str">
         <x:v>Success</x:v>
@@ -3442,10 +3442,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F24" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G24" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141042_214</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111436_575</x:v>
       </x:c>
       <x:c r="H24" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -3469,7 +3469,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O24" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P24">
         <x:v/>
@@ -3493,10 +3493,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W24" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X24" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y24" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -3523,7 +3523,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG24" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH24" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -3558,7 +3558,7 @@
     </x:row>
     <x:row r="25">
       <x:c r="A25" s="1" t="n">
-        <x:v>43305.5905982523</x:v>
+        <x:v>43311.4682832755</x:v>
       </x:c>
       <x:c r="B25" s="3" t="str">
         <x:v>Success</x:v>
@@ -3573,10 +3573,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F25" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G25" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141026_213</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111418_574</x:v>
       </x:c>
       <x:c r="H25" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -3600,7 +3600,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O25" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P25">
         <x:v/>
@@ -3624,10 +3624,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W25" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X25" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y25" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -3654,7 +3654,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG25" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH25" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -3689,7 +3689,7 @@
     </x:row>
     <x:row r="26">
       <x:c r="A26" s="1" t="n">
-        <x:v>43305.5904479977</x:v>
+        <x:v>43311.4681312963</x:v>
       </x:c>
       <x:c r="B26" s="3" t="str">
         <x:v>Success</x:v>
@@ -3704,10 +3704,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F26" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G26" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724141013_212</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111405_573</x:v>
       </x:c>
       <x:c r="H26" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -3731,7 +3731,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O26" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P26">
         <x:v/>
@@ -3755,10 +3755,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W26" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X26" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y26" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -3785,7 +3785,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG26" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH26" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -3820,7 +3820,7 @@
     </x:row>
     <x:row r="27">
       <x:c r="A27" s="1" t="n">
-        <x:v>43305.5902861806</x:v>
+        <x:v>43311.4679770255</x:v>
       </x:c>
       <x:c r="B27" s="3" t="str">
         <x:v>Success</x:v>
@@ -3835,10 +3835,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F27" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G27" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140959_211</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111351_572</x:v>
       </x:c>
       <x:c r="H27" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -3862,7 +3862,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O27" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P27">
         <x:v/>
@@ -3886,10 +3886,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W27" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X27" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y27" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -3916,7 +3916,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG27" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH27" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -3951,7 +3951,7 @@
     </x:row>
     <x:row r="28">
       <x:c r="A28" s="1" t="n">
-        <x:v>43305.5901615509</x:v>
+        <x:v>43311.4678382523</x:v>
       </x:c>
       <x:c r="B28" s="3" t="str">
         <x:v>Success</x:v>
@@ -3966,10 +3966,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F28" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G28" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140948_210</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111339_571</x:v>
       </x:c>
       <x:c r="H28" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -3993,7 +3993,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O28" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P28">
         <x:v/>
@@ -4017,10 +4017,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W28" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X28" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y28" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -4047,7 +4047,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG28" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH28" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -4082,7 +4082,7 @@
     </x:row>
     <x:row r="29">
       <x:c r="A29" s="1" t="n">
-        <x:v>43305.5899293866</x:v>
+        <x:v>43311.4676206366</x:v>
       </x:c>
       <x:c r="B29" s="3" t="str">
         <x:v>Success</x:v>
@@ -4097,10 +4097,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F29" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G29" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140927_209</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111320_570</x:v>
       </x:c>
       <x:c r="H29" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -4124,7 +4124,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O29" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P29">
         <x:v/>
@@ -4148,10 +4148,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W29" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X29" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y29" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -4178,7 +4178,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG29" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH29" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -4213,7 +4213,7 @@
     </x:row>
     <x:row r="30">
       <x:c r="A30" s="1" t="n">
-        <x:v>43305.5896825116</x:v>
+        <x:v>43311.467421088</x:v>
       </x:c>
       <x:c r="B30" s="3" t="str">
         <x:v>Success</x:v>
@@ -4228,10 +4228,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F30" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G30" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140907_208</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111303_569</x:v>
       </x:c>
       <x:c r="H30" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -4255,7 +4255,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O30" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P30">
         <x:v/>
@@ -4279,10 +4279,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W30" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X30" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y30" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -4309,7 +4309,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG30" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH30" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -4344,7 +4344,7 @@
     </x:row>
     <x:row r="31">
       <x:c r="A31" s="1" t="n">
-        <x:v>43305.5894920486</x:v>
+        <x:v>43311.4672335764</x:v>
       </x:c>
       <x:c r="B31" s="3" t="str">
         <x:v>Success</x:v>
@@ -4359,10 +4359,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F31" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G31" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140850_207</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111247_568</x:v>
       </x:c>
       <x:c r="H31" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -4386,7 +4386,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O31" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P31">
         <x:v/>
@@ -4410,10 +4410,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W31" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X31" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y31" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -4440,7 +4440,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG31" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH31" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -4475,7 +4475,7 @@
     </x:row>
     <x:row r="32">
       <x:c r="A32" s="1" t="n">
-        <x:v>43305.5893271181</x:v>
+        <x:v>43311.467078588</x:v>
       </x:c>
       <x:c r="B32" s="3" t="str">
         <x:v>Success</x:v>
@@ -4490,10 +4490,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F32" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G32" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140835_206</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111234_567</x:v>
       </x:c>
       <x:c r="H32" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -4517,7 +4517,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O32" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P32">
         <x:v/>
@@ -4541,10 +4541,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W32" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X32" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y32" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -4571,7 +4571,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG32" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH32" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -4606,7 +4606,7 @@
     </x:row>
     <x:row r="33">
       <x:c r="A33" s="1" t="n">
-        <x:v>43305.5889226968</x:v>
+        <x:v>43311.4666951157</x:v>
       </x:c>
       <x:c r="B33" s="3" t="str">
         <x:v>Success</x:v>
@@ -4621,10 +4621,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F33" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G33" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140801_205</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111200_566</x:v>
       </x:c>
       <x:c r="H33" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -4648,7 +4648,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O33" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P33">
         <x:v/>
@@ -4672,10 +4672,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W33" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X33" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y33" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -4702,7 +4702,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG33" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH33" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -4737,7 +4737,7 @@
     </x:row>
     <x:row r="34">
       <x:c r="A34" s="1" t="n">
-        <x:v>43305.5885938426</x:v>
+        <x:v>43311.4663590046</x:v>
       </x:c>
       <x:c r="B34" s="3" t="str">
         <x:v>Success</x:v>
@@ -4752,10 +4752,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F34" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G34" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140732_204</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111131_565</x:v>
       </x:c>
       <x:c r="H34" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -4779,7 +4779,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O34" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P34">
         <x:v/>
@@ -4803,10 +4803,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W34" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X34" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y34" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -4833,7 +4833,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG34" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH34" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -4868,7 +4868,7 @@
     </x:row>
     <x:row r="35">
       <x:c r="A35" s="1" t="n">
-        <x:v>43305.5883152083</x:v>
+        <x:v>43311.4660592477</x:v>
       </x:c>
       <x:c r="B35" s="3" t="str">
         <x:v>Success</x:v>
@@ -4883,10 +4883,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F35" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G35" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140708_203</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111105_564</x:v>
       </x:c>
       <x:c r="H35" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -4910,7 +4910,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O35" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P35">
         <x:v/>
@@ -4934,10 +4934,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W35" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X35" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y35" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -4964,7 +4964,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG35" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH35" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -4999,7 +4999,7 @@
     </x:row>
     <x:row r="36">
       <x:c r="A36" s="1" t="n">
-        <x:v>43305.5880528009</x:v>
+        <x:v>43311.4657835301</x:v>
       </x:c>
       <x:c r="B36" s="3" t="str">
         <x:v>Success</x:v>
@@ -5014,10 +5014,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F36" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G36" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140645_202</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111041_563</x:v>
       </x:c>
       <x:c r="H36" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -5041,7 +5041,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O36" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P36">
         <x:v/>
@@ -5065,10 +5065,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W36" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X36" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y36" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -5095,7 +5095,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG36" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH36" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -5130,7 +5130,7 @@
     </x:row>
     <x:row r="37">
       <x:c r="A37" s="1" t="n">
-        <x:v>43305.5878699537</x:v>
+        <x:v>43311.4655958681</x:v>
       </x:c>
       <x:c r="B37" s="3" t="str">
         <x:v>Success</x:v>
@@ -5145,10 +5145,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F37" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G37" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140630_201</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111025_562</x:v>
       </x:c>
       <x:c r="H37" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -5172,7 +5172,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O37" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P37">
         <x:v/>
@@ -5196,10 +5196,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W37" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X37" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y37" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -5226,7 +5226,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG37" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH37" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -5261,7 +5261,7 @@
     </x:row>
     <x:row r="38">
       <x:c r="A38" s="1" t="n">
-        <x:v>43305.5877762963</x:v>
+        <x:v>43311.4654877778</x:v>
       </x:c>
       <x:c r="B38" s="3" t="str">
         <x:v>Success</x:v>
@@ -5276,10 +5276,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F38" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G38" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140622_200</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111016_561</x:v>
       </x:c>
       <x:c r="H38" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -5303,7 +5303,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O38" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P38">
         <x:v/>
@@ -5327,10 +5327,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W38" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X38" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y38" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -5357,7 +5357,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG38" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH38" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -5392,7 +5392,7 @@
     </x:row>
     <x:row r="39">
       <x:c r="A39" s="1" t="n">
-        <x:v>43305.5876700231</x:v>
+        <x:v>43311.4653805208</x:v>
       </x:c>
       <x:c r="B39" s="3" t="str">
         <x:v>Success</x:v>
@@ -5407,10 +5407,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F39" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G39" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140612_199</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730111007_560</x:v>
       </x:c>
       <x:c r="H39" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -5434,7 +5434,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O39" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P39">
         <x:v/>
@@ -5458,10 +5458,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W39" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X39" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y39" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -5488,7 +5488,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG39" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH39" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -5523,7 +5523,7 @@
     </x:row>
     <x:row r="40">
       <x:c r="A40" s="1" t="n">
-        <x:v>43305.5872862384</x:v>
+        <x:v>43311.464954213</x:v>
       </x:c>
       <x:c r="B40" s="3" t="str">
         <x:v>Success</x:v>
@@ -5538,10 +5538,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F40" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G40" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140539_198</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110929_559</x:v>
       </x:c>
       <x:c r="H40" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -5565,7 +5565,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O40" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P40">
         <x:v/>
@@ -5589,10 +5589,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W40" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X40" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y40" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -5619,7 +5619,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG40" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH40" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -5654,7 +5654,7 @@
     </x:row>
     <x:row r="41">
       <x:c r="A41" s="1" t="n">
-        <x:v>43305.5870415856</x:v>
+        <x:v>43311.4647345833</x:v>
       </x:c>
       <x:c r="B41" s="3" t="str">
         <x:v>Success</x:v>
@@ -5669,10 +5669,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F41" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G41" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140518_197</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110911_558</x:v>
       </x:c>
       <x:c r="H41" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -5696,7 +5696,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O41" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P41">
         <x:v/>
@@ -5720,10 +5720,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W41" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X41" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y41" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -5750,7 +5750,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG41" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH41" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -5785,7 +5785,7 @@
     </x:row>
     <x:row r="42">
       <x:c r="A42" s="1" t="n">
-        <x:v>43305.586781088</x:v>
+        <x:v>43311.4644956019</x:v>
       </x:c>
       <x:c r="B42" s="3" t="str">
         <x:v>Success</x:v>
@@ -5800,10 +5800,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F42" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G42" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140456_196</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110850_557</x:v>
       </x:c>
       <x:c r="H42" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -5827,7 +5827,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O42" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P42">
         <x:v/>
@@ -5851,10 +5851,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W42" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X42" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y42" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -5881,7 +5881,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG42" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH42" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -5916,7 +5916,7 @@
     </x:row>
     <x:row r="43">
       <x:c r="A43" s="1" t="n">
-        <x:v>43305.5865704861</x:v>
+        <x:v>43311.4642765278</x:v>
       </x:c>
       <x:c r="B43" s="3" t="str">
         <x:v>Success</x:v>
@@ -5931,10 +5931,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F43" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G43" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140437_195</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110831_556</x:v>
       </x:c>
       <x:c r="H43" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -5958,7 +5958,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O43" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P43">
         <x:v/>
@@ -5982,10 +5982,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W43" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X43" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y43" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -6012,7 +6012,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG43" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH43" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -6047,7 +6047,7 @@
     </x:row>
     <x:row r="44">
       <x:c r="A44" s="1" t="n">
-        <x:v>43305.5863130093</x:v>
+        <x:v>43311.4640327546</x:v>
       </x:c>
       <x:c r="B44" s="3" t="str">
         <x:v>Success</x:v>
@@ -6062,10 +6062,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F44" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G44" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140415_194</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110810_555</x:v>
       </x:c>
       <x:c r="H44" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -6089,7 +6089,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O44" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P44">
         <x:v/>
@@ -6113,10 +6113,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W44" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X44" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y44" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -6143,7 +6143,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG44" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH44" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -6178,7 +6178,7 @@
     </x:row>
     <x:row r="45">
       <x:c r="A45" s="1" t="n">
-        <x:v>43305.5861677778</x:v>
+        <x:v>43311.4638990046</x:v>
       </x:c>
       <x:c r="B45" s="3" t="str">
         <x:v>Success</x:v>
@@ -6193,10 +6193,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F45" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G45" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140403_193</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110759_554</x:v>
       </x:c>
       <x:c r="H45" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -6220,7 +6220,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O45" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P45">
         <x:v/>
@@ -6244,10 +6244,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W45" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X45" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y45" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -6274,7 +6274,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG45" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH45" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -6309,7 +6309,7 @@
     </x:row>
     <x:row r="46">
       <x:c r="A46" s="1" t="n">
-        <x:v>43305.586066794</x:v>
+        <x:v>43311.4637940278</x:v>
       </x:c>
       <x:c r="B46" s="3" t="str">
         <x:v>Success</x:v>
@@ -6324,10 +6324,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F46" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G46" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140355_192</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110750_553</x:v>
       </x:c>
       <x:c r="H46" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -6351,7 +6351,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O46" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P46">
         <x:v/>
@@ -6375,10 +6375,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W46" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X46" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y46" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -6405,7 +6405,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG46" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH46" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -6440,7 +6440,7 @@
     </x:row>
     <x:row r="47">
       <x:c r="A47" s="1" t="n">
-        <x:v>43305.5859731944</x:v>
+        <x:v>43311.4636890278</x:v>
       </x:c>
       <x:c r="B47" s="3" t="str">
         <x:v>Success</x:v>
@@ -6455,10 +6455,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F47" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G47" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140346_191</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110741_552</x:v>
       </x:c>
       <x:c r="H47" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -6482,7 +6482,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O47" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P47">
         <x:v/>
@@ -6506,10 +6506,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W47" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X47" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y47" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -6536,7 +6536,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG47" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH47" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -6571,7 +6571,7 @@
     </x:row>
     <x:row r="48">
       <x:c r="A48" s="1" t="n">
-        <x:v>43305.5855606366</x:v>
+        <x:v>43311.4632603241</x:v>
       </x:c>
       <x:c r="B48" s="3" t="str">
         <x:v>Success</x:v>
@@ -6586,10 +6586,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F48" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G48" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140310_190</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110703_551</x:v>
       </x:c>
       <x:c r="H48" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -6613,7 +6613,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O48" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P48">
         <x:v/>
@@ -6637,10 +6637,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W48" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X48" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y48" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -6667,7 +6667,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG48" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH48" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -6702,7 +6702,7 @@
     </x:row>
     <x:row r="49">
       <x:c r="A49" s="1" t="n">
-        <x:v>43305.5854177778</x:v>
+        <x:v>43311.4631188773</x:v>
       </x:c>
       <x:c r="B49" s="3" t="str">
         <x:v>Success</x:v>
@@ -6717,10 +6717,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F49" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G49" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140258_189</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110651_550</x:v>
       </x:c>
       <x:c r="H49" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -6744,7 +6744,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O49" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P49">
         <x:v/>
@@ -6768,10 +6768,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W49" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X49" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y49" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -6798,7 +6798,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG49" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH49" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -6833,7 +6833,7 @@
     </x:row>
     <x:row r="50">
       <x:c r="A50" s="1" t="n">
-        <x:v>43305.5852228935</x:v>
+        <x:v>43311.4629051389</x:v>
       </x:c>
       <x:c r="B50" s="3" t="str">
         <x:v>Success</x:v>
@@ -6848,10 +6848,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F50" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G50" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140241_188</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110633_549</x:v>
       </x:c>
       <x:c r="H50" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -6875,7 +6875,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O50" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P50">
         <x:v/>
@@ -6899,10 +6899,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W50" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X50" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y50" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -6929,7 +6929,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG50" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH50" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -6964,7 +6964,7 @@
     </x:row>
     <x:row r="51">
       <x:c r="A51" s="1" t="n">
-        <x:v>43305.585031875</x:v>
+        <x:v>43311.4627009722</x:v>
       </x:c>
       <x:c r="B51" s="3" t="str">
         <x:v>Success</x:v>
@@ -6979,10 +6979,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F51" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G51" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140225_187</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110615_548</x:v>
       </x:c>
       <x:c r="H51" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -7006,7 +7006,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O51" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P51">
         <x:v/>
@@ -7030,10 +7030,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W51" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X51" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y51" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -7060,7 +7060,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG51" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH51" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -7095,7 +7095,7 @@
     </x:row>
     <x:row r="52">
       <x:c r="A52" s="1" t="n">
-        <x:v>43305.5849525579</x:v>
+        <x:v>43311.4626100116</x:v>
       </x:c>
       <x:c r="B52" s="3" t="str">
         <x:v>Success</x:v>
@@ -7110,10 +7110,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F52" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G52" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140218_186</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110608_547</x:v>
       </x:c>
       <x:c r="H52" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -7137,7 +7137,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O52" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P52">
         <x:v/>
@@ -7161,10 +7161,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W52" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X52" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y52" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -7191,7 +7191,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG52" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH52" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -7226,7 +7226,7 @@
     </x:row>
     <x:row r="53">
       <x:c r="A53" s="1" t="n">
-        <x:v>43305.5848624074</x:v>
+        <x:v>43311.4624983681</x:v>
       </x:c>
       <x:c r="B53" s="3" t="str">
         <x:v>Success</x:v>
@@ -7241,10 +7241,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F53" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G53" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140210_185</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110558_546</x:v>
       </x:c>
       <x:c r="H53" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -7268,7 +7268,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O53" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P53">
         <x:v/>
@@ -7292,10 +7292,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W53" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X53" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y53" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -7322,7 +7322,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG53" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH53" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -7357,7 +7357,7 @@
     </x:row>
     <x:row r="54">
       <x:c r="A54" s="1" t="n">
-        <x:v>43305.5843446296</x:v>
+        <x:v>43311.4619411806</x:v>
       </x:c>
       <x:c r="B54" s="3" t="str">
         <x:v>Success</x:v>
@@ -7372,10 +7372,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F54" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G54" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140125_184</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110509_545</x:v>
       </x:c>
       <x:c r="H54" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -7399,7 +7399,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O54" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P54">
         <x:v/>
@@ -7423,10 +7423,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W54" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X54" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y54" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -7453,7 +7453,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG54" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH54" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -7488,7 +7488,7 @@
     </x:row>
     <x:row r="55">
       <x:c r="A55" s="1" t="n">
-        <x:v>43305.5841374306</x:v>
+        <x:v>43311.4617154977</x:v>
       </x:c>
       <x:c r="B55" s="3" t="str">
         <x:v>Success</x:v>
@@ -7503,10 +7503,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F55" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G55" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140108_183</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110450_544</x:v>
       </x:c>
       <x:c r="H55" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -7530,7 +7530,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O55" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P55">
         <x:v/>
@@ -7554,10 +7554,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W55" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X55" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y55" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -7584,7 +7584,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG55" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH55" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -7619,7 +7619,7 @@
     </x:row>
     <x:row r="56">
       <x:c r="A56" s="1" t="n">
-        <x:v>43305.5837442593</x:v>
+        <x:v>43311.4613015509</x:v>
       </x:c>
       <x:c r="B56" s="3" t="str">
         <x:v>Success</x:v>
@@ -7634,10 +7634,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F56" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G56" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140033_182</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110414_543</x:v>
       </x:c>
       <x:c r="H56" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -7661,7 +7661,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O56" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P56">
         <x:v/>
@@ -7685,10 +7685,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W56" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X56" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y56" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -7715,7 +7715,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG56" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH56" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -7750,7 +7750,7 @@
     </x:row>
     <x:row r="57">
       <x:c r="A57" s="1" t="n">
-        <x:v>43305.5834138889</x:v>
+        <x:v>43311.4609190394</x:v>
       </x:c>
       <x:c r="B57" s="3" t="str">
         <x:v>Success</x:v>
@@ -7765,10 +7765,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F57" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G57" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724140005_181</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110341_542</x:v>
       </x:c>
       <x:c r="H57" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -7792,7 +7792,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O57" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P57">
         <x:v/>
@@ -7816,10 +7816,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W57" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X57" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y57" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -7846,7 +7846,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG57" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH57" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -7881,7 +7881,7 @@
     </x:row>
     <x:row r="58">
       <x:c r="A58" s="1" t="n">
-        <x:v>43305.583329456</x:v>
+        <x:v>43311.4608415972</x:v>
       </x:c>
       <x:c r="B58" s="3" t="str">
         <x:v>Success</x:v>
@@ -7896,10 +7896,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F58" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G58" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135958_180</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110335_541</x:v>
       </x:c>
       <x:c r="H58" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -7923,7 +7923,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O58" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P58">
         <x:v/>
@@ -7947,10 +7947,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W58" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X58" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y58" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -7977,7 +7977,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG58" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH58" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -8012,7 +8012,7 @@
     </x:row>
     <x:row r="59">
       <x:c r="A59" s="1" t="n">
-        <x:v>43305.5830934491</x:v>
+        <x:v>43311.460590162</x:v>
       </x:c>
       <x:c r="B59" s="3" t="str">
         <x:v>Success</x:v>
@@ -8027,10 +8027,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F59" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G59" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135936_179</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110312_540</x:v>
       </x:c>
       <x:c r="H59" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -8054,7 +8054,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O59" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P59">
         <x:v/>
@@ -8078,10 +8078,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W59" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X59" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y59" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -8108,7 +8108,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG59" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH59" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -8143,7 +8143,7 @@
     </x:row>
     <x:row r="60">
       <x:c r="A60" s="1" t="n">
-        <x:v>43305.5829893171</x:v>
+        <x:v>43311.4604954051</x:v>
       </x:c>
       <x:c r="B60" s="3" t="str">
         <x:v>Success</x:v>
@@ -8158,10 +8158,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F60" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G60" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135928_178</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110305_539</x:v>
       </x:c>
       <x:c r="H60" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -8185,7 +8185,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O60" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P60">
         <x:v/>
@@ -8209,10 +8209,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W60" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X60" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y60" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -8239,7 +8239,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG60" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH60" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -8274,7 +8274,7 @@
     </x:row>
     <x:row r="61">
       <x:c r="A61" s="1" t="n">
-        <x:v>43305.5828536343</x:v>
+        <x:v>43311.4603436574</x:v>
       </x:c>
       <x:c r="B61" s="3" t="str">
         <x:v>Success</x:v>
@@ -8289,10 +8289,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F61" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G61" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135917_177</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110252_538</x:v>
       </x:c>
       <x:c r="H61" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -8316,7 +8316,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O61" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P61">
         <x:v/>
@@ -8340,10 +8340,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W61" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X61" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y61" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -8370,7 +8370,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG61" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH61" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -8405,7 +8405,7 @@
     </x:row>
     <x:row r="62">
       <x:c r="A62" s="1" t="n">
-        <x:v>43305.5826508102</x:v>
+        <x:v>43311.4601678356</x:v>
       </x:c>
       <x:c r="B62" s="3" t="str">
         <x:v>Success</x:v>
@@ -8420,10 +8420,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F62" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G62" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135858_176</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110237_537</x:v>
       </x:c>
       <x:c r="H62" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -8447,7 +8447,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O62" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P62">
         <x:v/>
@@ -8471,10 +8471,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W62" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X62" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y62" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -8501,7 +8501,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG62" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH62" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -8536,7 +8536,7 @@
     </x:row>
     <x:row r="63">
       <x:c r="A63" s="1" t="n">
-        <x:v>43305.5824023264</x:v>
+        <x:v>43311.4599051505</x:v>
       </x:c>
       <x:c r="B63" s="3" t="str">
         <x:v>Success</x:v>
@@ -8551,10 +8551,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F63" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G63" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135836_175</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110214_536</x:v>
       </x:c>
       <x:c r="H63" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -8578,7 +8578,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O63" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P63">
         <x:v/>
@@ -8602,10 +8602,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W63" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X63" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y63" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -8632,7 +8632,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG63" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH63" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -8667,7 +8667,7 @@
     </x:row>
     <x:row r="64">
       <x:c r="A64" s="1" t="n">
-        <x:v>43305.5822283565</x:v>
+        <x:v>43311.4596703241</x:v>
       </x:c>
       <x:c r="B64" s="3" t="str">
         <x:v>Success</x:v>
@@ -8682,10 +8682,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F64" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G64" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135823_174</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110154_535</x:v>
       </x:c>
       <x:c r="H64" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -8709,7 +8709,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O64" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P64">
         <x:v/>
@@ -8733,10 +8733,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W64" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X64" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y64" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -8763,7 +8763,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG64" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH64" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -8798,7 +8798,7 @@
     </x:row>
     <x:row r="65">
       <x:c r="A65" s="1" t="n">
-        <x:v>43305.5820927315</x:v>
+        <x:v>43311.4592692824</x:v>
       </x:c>
       <x:c r="B65" s="3" t="str">
         <x:v>Success</x:v>
@@ -8813,10 +8813,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F65" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G65" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135811_173</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110119_534</x:v>
       </x:c>
       <x:c r="H65" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -8840,7 +8840,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O65" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P65">
         <x:v/>
@@ -8864,10 +8864,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W65" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X65" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y65" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -8894,7 +8894,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG65" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH65" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -8929,7 +8929,7 @@
     </x:row>
     <x:row r="66">
       <x:c r="A66" s="1" t="n">
-        <x:v>43305.581918125</x:v>
+        <x:v>43311.4589705903</x:v>
       </x:c>
       <x:c r="B66" s="3" t="str">
         <x:v>Success</x:v>
@@ -8944,10 +8944,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F66" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G66" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135755_172</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110053_533</x:v>
       </x:c>
       <x:c r="H66" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -8971,7 +8971,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O66" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P66">
         <x:v/>
@@ -8995,10 +8995,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W66" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X66" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y66" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -9025,7 +9025,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG66" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH66" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -9060,7 +9060,7 @@
     </x:row>
     <x:row r="67">
       <x:c r="A67" s="1" t="n">
-        <x:v>43305.5816162963</x:v>
+        <x:v>43311.4585353472</x:v>
       </x:c>
       <x:c r="B67" s="3" t="str">
         <x:v>Success</x:v>
@@ -9075,10 +9075,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F67" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G67" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135729_171</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730110015_532</x:v>
       </x:c>
       <x:c r="H67" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -9102,7 +9102,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O67" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P67">
         <x:v/>
@@ -9126,10 +9126,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W67" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X67" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y67" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -9156,7 +9156,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG67" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH67" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -9191,7 +9191,7 @@
     </x:row>
     <x:row r="68">
       <x:c r="A68" s="1" t="n">
-        <x:v>43305.5812585648</x:v>
+        <x:v>43311.4581543519</x:v>
       </x:c>
       <x:c r="B68" s="3" t="str">
         <x:v>Success</x:v>
@@ -9206,10 +9206,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F68" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G68" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135659_170</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105943_531</x:v>
       </x:c>
       <x:c r="H68" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -9233,7 +9233,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O68" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P68">
         <x:v/>
@@ -9257,10 +9257,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W68" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X68" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y68" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -9287,7 +9287,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG68" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH68" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -9322,7 +9322,7 @@
     </x:row>
     <x:row r="69">
       <x:c r="A69" s="1" t="n">
-        <x:v>43305.5811594444</x:v>
+        <x:v>43311.458051331</x:v>
       </x:c>
       <x:c r="B69" s="3" t="str">
         <x:v>Success</x:v>
@@ -9337,10 +9337,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F69" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G69" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135651_169</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105934_530</x:v>
       </x:c>
       <x:c r="H69" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -9364,7 +9364,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O69" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P69">
         <x:v/>
@@ -9388,10 +9388,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W69" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X69" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y69" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -9418,7 +9418,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG69" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH69" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -9453,7 +9453,7 @@
     </x:row>
     <x:row r="70">
       <x:c r="A70" s="1" t="n">
-        <x:v>43305.5810227431</x:v>
+        <x:v>43311.4579111921</x:v>
       </x:c>
       <x:c r="B70" s="3" t="str">
         <x:v>Success</x:v>
@@ -9468,10 +9468,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F70" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G70" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135639_168</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105922_529</x:v>
       </x:c>
       <x:c r="H70" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -9495,7 +9495,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O70" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P70">
         <x:v/>
@@ -9519,10 +9519,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W70" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X70" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y70" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -9549,7 +9549,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG70" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH70" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -9584,7 +9584,7 @@
     </x:row>
     <x:row r="71">
       <x:c r="A71" s="1" t="n">
-        <x:v>43305.5809174421</x:v>
+        <x:v>43311.4578192245</x:v>
       </x:c>
       <x:c r="B71" s="3" t="str">
         <x:v>Success</x:v>
@@ -9599,10 +9599,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F71" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G71" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135630_167</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105914_528</x:v>
       </x:c>
       <x:c r="H71" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -9626,7 +9626,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O71" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P71">
         <x:v/>
@@ -9650,10 +9650,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W71" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X71" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y71" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -9680,7 +9680,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG71" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH71" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -9715,7 +9715,7 @@
     </x:row>
     <x:row r="72">
       <x:c r="A72" s="1" t="n">
-        <x:v>43305.5807017245</x:v>
+        <x:v>43311.4575773727</x:v>
       </x:c>
       <x:c r="B72" s="3" t="str">
         <x:v>Success</x:v>
@@ -9730,10 +9730,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F72" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G72" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135610_166</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105853_527</x:v>
       </x:c>
       <x:c r="H72" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -9757,7 +9757,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O72" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P72">
         <x:v/>
@@ -9781,10 +9781,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W72" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X72" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y72" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -9811,7 +9811,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG72" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH72" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -9846,7 +9846,7 @@
     </x:row>
     <x:row r="73">
       <x:c r="A73" s="1" t="n">
-        <x:v>43305.58056875</x:v>
+        <x:v>43311.4574502315</x:v>
       </x:c>
       <x:c r="B73" s="3" t="str">
         <x:v>Success</x:v>
@@ -9861,10 +9861,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F73" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G73" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135559_165</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105842_526</x:v>
       </x:c>
       <x:c r="H73" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -9888,7 +9888,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O73" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P73">
         <x:v/>
@@ -9912,10 +9912,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W73" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X73" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y73" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -9942,7 +9942,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG73" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH73" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -9977,7 +9977,7 @@
     </x:row>
     <x:row r="74">
       <x:c r="A74" s="1" t="n">
-        <x:v>43305.5804157523</x:v>
+        <x:v>43311.4572741088</x:v>
       </x:c>
       <x:c r="B74" s="3" t="str">
         <x:v>Success</x:v>
@@ -9992,10 +9992,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F74" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G74" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135546_164</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105827_525</x:v>
       </x:c>
       <x:c r="H74" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -10019,7 +10019,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O74" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P74">
         <x:v/>
@@ -10043,10 +10043,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W74" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X74" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y74" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -10073,7 +10073,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG74" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH74" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -10108,7 +10108,7 @@
     </x:row>
     <x:row r="75">
       <x:c r="A75" s="1" t="n">
-        <x:v>43305.580310544</x:v>
+        <x:v>43311.4570891898</x:v>
       </x:c>
       <x:c r="B75" s="3" t="str">
         <x:v>Success</x:v>
@@ -10123,10 +10123,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F75" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G75" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135536_163</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105811_524</x:v>
       </x:c>
       <x:c r="H75" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -10150,7 +10150,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O75" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P75">
         <x:v/>
@@ -10174,10 +10174,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W75" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X75" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y75" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -10204,7 +10204,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG75" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH75" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -10239,7 +10239,7 @@
     </x:row>
     <x:row r="76">
       <x:c r="A76" s="1" t="n">
-        <x:v>43305.5801230324</x:v>
+        <x:v>43311.4568856713</x:v>
       </x:c>
       <x:c r="B76" s="3" t="str">
         <x:v>Success</x:v>
@@ -10254,10 +10254,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F76" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G76" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135521_162</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105753_523</x:v>
       </x:c>
       <x:c r="H76" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -10281,7 +10281,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O76" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P76">
         <x:v/>
@@ -10305,10 +10305,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W76" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X76" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y76" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -10335,7 +10335,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG76" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH76" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -10370,7 +10370,7 @@
     </x:row>
     <x:row r="77">
       <x:c r="A77" s="1" t="n">
-        <x:v>43305.5799364931</x:v>
+        <x:v>43311.4566801389</x:v>
       </x:c>
       <x:c r="B77" s="3" t="str">
         <x:v>Success</x:v>
@@ -10385,10 +10385,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F77" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G77" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135504_161</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105735_522</x:v>
       </x:c>
       <x:c r="H77" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -10412,7 +10412,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O77" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P77">
         <x:v/>
@@ -10436,10 +10436,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W77" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X77" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y77" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -10466,7 +10466,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG77" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH77" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -10501,7 +10501,7 @@
     </x:row>
     <x:row r="78">
       <x:c r="A78" s="1" t="n">
-        <x:v>43305.5798700231</x:v>
+        <x:v>43311.4566111574</x:v>
       </x:c>
       <x:c r="B78" s="3" t="str">
         <x:v>Success</x:v>
@@ -10516,10 +10516,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F78" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G78" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135458_160</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105730_521</x:v>
       </x:c>
       <x:c r="H78" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -10543,7 +10543,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O78" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P78">
         <x:v/>
@@ -10567,10 +10567,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W78" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X78" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y78" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -10597,7 +10597,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG78" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH78" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -10632,7 +10632,7 @@
     </x:row>
     <x:row r="79">
       <x:c r="A79" s="1" t="n">
-        <x:v>43305.5797448843</x:v>
+        <x:v>43311.4564942477</x:v>
       </x:c>
       <x:c r="B79" s="3" t="str">
         <x:v>Success</x:v>
@@ -10647,10 +10647,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F79" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G79" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135447_159</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105719_520</x:v>
       </x:c>
       <x:c r="H79" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -10674,7 +10674,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O79" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P79">
         <x:v/>
@@ -10698,10 +10698,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W79" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X79" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y79" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -10728,7 +10728,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG79" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH79" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -10763,7 +10763,7 @@
     </x:row>
     <x:row r="80">
       <x:c r="A80" s="1" t="n">
-        <x:v>43305.5791872338</x:v>
+        <x:v>43311.4561384491</x:v>
       </x:c>
       <x:c r="B80" s="3" t="str">
         <x:v>Success</x:v>
@@ -10778,10 +10778,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F80" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G80" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135359_158</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105648_519</x:v>
       </x:c>
       <x:c r="H80" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -10805,7 +10805,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O80" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P80">
         <x:v/>
@@ -10829,10 +10829,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W80" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X80" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y80" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -10859,7 +10859,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG80" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH80" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -10894,7 +10894,7 @@
     </x:row>
     <x:row r="81">
       <x:c r="A81" s="1" t="n">
-        <x:v>43305.578901956</x:v>
+        <x:v>43311.4558910185</x:v>
       </x:c>
       <x:c r="B81" s="3" t="str">
         <x:v>Success</x:v>
@@ -10909,10 +10909,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F81" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G81" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135334_157</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105627_518</x:v>
       </x:c>
       <x:c r="H81" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -10936,7 +10936,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O81" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P81">
         <x:v/>
@@ -10960,10 +10960,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W81" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X81" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y81" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -10990,7 +10990,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG81" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH81" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -11025,7 +11025,7 @@
     </x:row>
     <x:row r="82">
       <x:c r="A82" s="1" t="n">
-        <x:v>43305.5787166898</x:v>
+        <x:v>43311.4557078704</x:v>
       </x:c>
       <x:c r="B82" s="3" t="str">
         <x:v>Success</x:v>
@@ -11040,10 +11040,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F82" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G82" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135319_156</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105611_517</x:v>
       </x:c>
       <x:c r="H82" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -11067,7 +11067,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O82" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P82">
         <x:v/>
@@ -11091,10 +11091,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W82" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X82" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y82" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -11121,7 +11121,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG82" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH82" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -11156,7 +11156,7 @@
     </x:row>
     <x:row r="83">
       <x:c r="A83" s="1" t="n">
-        <x:v>43305.578587963</x:v>
+        <x:v>43311.4555516898</x:v>
       </x:c>
       <x:c r="B83" s="3" t="str">
         <x:v>Success</x:v>
@@ -11171,10 +11171,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F83" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G83" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135308_155</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105558_516</x:v>
       </x:c>
       <x:c r="H83" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -11198,7 +11198,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O83" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P83">
         <x:v/>
@@ -11222,10 +11222,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W83" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X83" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y83" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -11252,7 +11252,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG83" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH83" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -11287,7 +11287,7 @@
     </x:row>
     <x:row r="84">
       <x:c r="A84" s="1" t="n">
-        <x:v>43305.5782048843</x:v>
+        <x:v>43311.4551646644</x:v>
       </x:c>
       <x:c r="B84" s="3" t="str">
         <x:v>Success</x:v>
@@ -11302,10 +11302,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F84" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G84" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135234_154</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105524_515</x:v>
       </x:c>
       <x:c r="H84" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -11329,7 +11329,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O84" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P84">
         <x:v/>
@@ -11353,10 +11353,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W84" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X84" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y84" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -11383,7 +11383,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG84" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH84" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -11418,7 +11418,7 @@
     </x:row>
     <x:row r="85">
       <x:c r="A85" s="1" t="n">
-        <x:v>43305.5780964005</x:v>
+        <x:v>43311.4550546181</x:v>
       </x:c>
       <x:c r="B85" s="3" t="str">
         <x:v>Success</x:v>
@@ -11433,10 +11433,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F85" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G85" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135225_153</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105515_514</x:v>
       </x:c>
       <x:c r="H85" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -11460,7 +11460,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O85" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P85">
         <x:v/>
@@ -11484,10 +11484,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W85" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X85" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y85" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -11514,7 +11514,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG85" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH85" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -11549,7 +11549,7 @@
     </x:row>
     <x:row r="86">
       <x:c r="A86" s="1" t="n">
-        <x:v>43305.5779525347</x:v>
+        <x:v>43311.4549137153</x:v>
       </x:c>
       <x:c r="B86" s="3" t="str">
         <x:v>Success</x:v>
@@ -11564,10 +11564,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F86" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G86" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135213_152</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105503_513</x:v>
       </x:c>
       <x:c r="H86" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -11591,7 +11591,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O86" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P86">
         <x:v/>
@@ -11615,10 +11615,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W86" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X86" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y86" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -11645,7 +11645,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG86" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH86" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -11680,7 +11680,7 @@
     </x:row>
     <x:row r="87">
       <x:c r="A87" s="1" t="n">
-        <x:v>43305.5778346875</x:v>
+        <x:v>43311.4547990741</x:v>
       </x:c>
       <x:c r="B87" s="3" t="str">
         <x:v>Success</x:v>
@@ -11695,10 +11695,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F87" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G87" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135203_151</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105453_512</x:v>
       </x:c>
       <x:c r="H87" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -11722,7 +11722,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O87" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P87">
         <x:v/>
@@ -11746,10 +11746,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W87" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X87" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y87" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -11776,7 +11776,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG87" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH87" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -11811,7 +11811,7 @@
     </x:row>
     <x:row r="88">
       <x:c r="A88" s="1" t="n">
-        <x:v>43305.577445625</x:v>
+        <x:v>43311.4544209606</x:v>
       </x:c>
       <x:c r="B88" s="3" t="str">
         <x:v>Success</x:v>
@@ -11826,10 +11826,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F88" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G88" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135129_150</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105420_511</x:v>
       </x:c>
       <x:c r="H88" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -11853,7 +11853,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O88" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P88">
         <x:v/>
@@ -11877,10 +11877,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W88" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X88" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y88" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -11907,7 +11907,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG88" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH88" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -11942,7 +11942,7 @@
     </x:row>
     <x:row r="89">
       <x:c r="A89" s="1" t="n">
-        <x:v>43305.5773093981</x:v>
+        <x:v>43311.454284919</x:v>
       </x:c>
       <x:c r="B89" s="3" t="str">
         <x:v>Success</x:v>
@@ -11957,10 +11957,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F89" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G89" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135118_149</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105408_510</x:v>
       </x:c>
       <x:c r="H89" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -11984,7 +11984,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O89" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P89">
         <x:v/>
@@ -12008,10 +12008,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W89" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X89" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y89" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -12038,7 +12038,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG89" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH89" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -12073,7 +12073,7 @@
     </x:row>
     <x:row r="90">
       <x:c r="A90" s="1" t="n">
-        <x:v>43305.5770230556</x:v>
+        <x:v>43311.4539995486</x:v>
       </x:c>
       <x:c r="B90" s="3" t="str">
         <x:v>Success</x:v>
@@ -12088,10 +12088,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F90" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G90" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135053_148</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105344_509</x:v>
       </x:c>
       <x:c r="H90" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -12115,7 +12115,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O90" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P90">
         <x:v/>
@@ -12139,10 +12139,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W90" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X90" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y90" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -12169,7 +12169,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG90" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH90" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -12204,7 +12204,7 @@
     </x:row>
     <x:row r="91">
       <x:c r="A91" s="1" t="n">
-        <x:v>43305.5769389583</x:v>
+        <x:v>43311.4539198264</x:v>
       </x:c>
       <x:c r="B91" s="3" t="str">
         <x:v>Success</x:v>
@@ -12219,10 +12219,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F91" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G91" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135046_147</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105337_508</x:v>
       </x:c>
       <x:c r="H91" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -12246,7 +12246,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O91" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P91">
         <x:v/>
@@ -12270,10 +12270,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W91" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X91" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y91" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -12300,7 +12300,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG91" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH91" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -12335,7 +12335,7 @@
     </x:row>
     <x:row r="92">
       <x:c r="A92" s="1" t="n">
-        <x:v>43305.5766201042</x:v>
+        <x:v>43311.4537487037</x:v>
       </x:c>
       <x:c r="B92" s="3" t="str">
         <x:v>Success</x:v>
@@ -12350,10 +12350,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F92" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G92" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135018_146</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105322_507</x:v>
       </x:c>
       <x:c r="H92" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -12377,7 +12377,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O92" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P92">
         <x:v/>
@@ -12401,10 +12401,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W92" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X92" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y92" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -12431,7 +12431,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG92" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH92" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -12466,7 +12466,7 @@
     </x:row>
     <x:row r="93">
       <x:c r="A93" s="1" t="n">
-        <x:v>43305.576549375</x:v>
+        <x:v>43311.4536825347</x:v>
       </x:c>
       <x:c r="B93" s="3" t="str">
         <x:v>Success</x:v>
@@ -12481,10 +12481,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F93" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G93" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724135012_145</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105316_506</x:v>
       </x:c>
       <x:c r="H93" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -12508,7 +12508,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O93" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P93">
         <x:v/>
@@ -12532,10 +12532,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W93" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X93" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y93" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -12562,7 +12562,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG93" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH93" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -12597,7 +12597,7 @@
     </x:row>
     <x:row r="94">
       <x:c r="A94" s="1" t="n">
-        <x:v>43305.576289537</x:v>
+        <x:v>43311.4534426505</x:v>
       </x:c>
       <x:c r="B94" s="3" t="str">
         <x:v>Success</x:v>
@@ -12612,10 +12612,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F94" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G94" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134949_144</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105256_505</x:v>
       </x:c>
       <x:c r="H94" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -12639,7 +12639,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O94" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P94">
         <x:v/>
@@ -12663,10 +12663,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W94" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X94" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y94" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -12693,7 +12693,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG94" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH94" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -12728,7 +12728,7 @@
     </x:row>
     <x:row r="95">
       <x:c r="A95" s="1" t="n">
-        <x:v>43305.5760913194</x:v>
+        <x:v>43311.4532323611</x:v>
       </x:c>
       <x:c r="B95" s="3" t="str">
         <x:v>Success</x:v>
@@ -12743,10 +12743,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F95" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G95" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134932_143</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105237_504</x:v>
       </x:c>
       <x:c r="H95" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -12770,7 +12770,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O95" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P95">
         <x:v/>
@@ -12794,10 +12794,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W95" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X95" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y95" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -12824,7 +12824,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG95" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH95" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -12859,7 +12859,7 @@
     </x:row>
     <x:row r="96">
       <x:c r="A96" s="1" t="n">
-        <x:v>43305.575818588</x:v>
+        <x:v>43311.4529940162</x:v>
       </x:c>
       <x:c r="B96" s="3" t="str">
         <x:v>Success</x:v>
@@ -12874,10 +12874,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F96" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G96" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134909_142</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105217_503</x:v>
       </x:c>
       <x:c r="H96" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -12901,7 +12901,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O96" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P96">
         <x:v/>
@@ -12925,10 +12925,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W96" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X96" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y96" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -12955,7 +12955,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG96" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH96" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -12990,7 +12990,7 @@
     </x:row>
     <x:row r="97">
       <x:c r="A97" s="1" t="n">
-        <x:v>43305.5756129977</x:v>
+        <x:v>43311.452807581</x:v>
       </x:c>
       <x:c r="B97" s="3" t="str">
         <x:v>Success</x:v>
@@ -13005,10 +13005,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F97" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G97" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134851_141</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105200_502</x:v>
       </x:c>
       <x:c r="H97" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -13032,7 +13032,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O97" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P97">
         <x:v/>
@@ -13056,10 +13056,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W97" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X97" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y97" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -13086,7 +13086,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG97" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH97" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -13121,7 +13121,7 @@
     </x:row>
     <x:row r="98">
       <x:c r="A98" s="1" t="n">
-        <x:v>43305.575191713</x:v>
+        <x:v>43311.4524767477</x:v>
       </x:c>
       <x:c r="B98" s="3" t="str">
         <x:v>Success</x:v>
@@ -13136,10 +13136,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F98" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G98" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134814_140</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105132_501</x:v>
       </x:c>
       <x:c r="H98" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -13163,7 +13163,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O98" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P98">
         <x:v/>
@@ -13187,10 +13187,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W98" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X98" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y98" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -13217,7 +13217,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG98" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH98" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -13252,7 +13252,7 @@
     </x:row>
     <x:row r="99">
       <x:c r="A99" s="1" t="n">
-        <x:v>43305.5750540625</x:v>
+        <x:v>43311.4523478241</x:v>
       </x:c>
       <x:c r="B99" s="3" t="str">
         <x:v>Success</x:v>
@@ -13267,10 +13267,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F99" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G99" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134803_139</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105121_500</x:v>
       </x:c>
       <x:c r="H99" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -13294,7 +13294,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O99" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P99">
         <x:v/>
@@ -13318,10 +13318,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W99" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X99" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y99" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -13348,7 +13348,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG99" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH99" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -13383,7 +13383,7 @@
     </x:row>
     <x:row r="100">
       <x:c r="A100" s="1" t="n">
-        <x:v>43305.5747906597</x:v>
+        <x:v>43311.4520619792</x:v>
       </x:c>
       <x:c r="B100" s="3" t="str">
         <x:v>Success</x:v>
@@ -13398,10 +13398,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F100" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G100" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134740_138</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105056_499</x:v>
       </x:c>
       <x:c r="H100" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -13425,7 +13425,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O100" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P100">
         <x:v/>
@@ -13449,10 +13449,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W100" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X100" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y100" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -13479,7 +13479,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG100" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH100" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -13514,7 +13514,7 @@
     </x:row>
     <x:row r="101">
       <x:c r="A101" s="1" t="n">
-        <x:v>43305.5746496528</x:v>
+        <x:v>43311.4518906018</x:v>
       </x:c>
       <x:c r="B101" s="3" t="str">
         <x:v>Success</x:v>
@@ -13529,10 +13529,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F101" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G101" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134728_137</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105041_498</x:v>
       </x:c>
       <x:c r="H101" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -13556,7 +13556,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O101" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P101">
         <x:v/>
@@ -13580,10 +13580,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W101" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X101" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y101" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -13610,7 +13610,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG101" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH101" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -13645,7 +13645,7 @@
     </x:row>
     <x:row r="102">
       <x:c r="A102" s="1" t="n">
-        <x:v>43305.5745302199</x:v>
+        <x:v>43311.4517684722</x:v>
       </x:c>
       <x:c r="B102" s="3" t="str">
         <x:v>Success</x:v>
@@ -13660,10 +13660,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F102" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G102" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134717_136</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105031_497</x:v>
       </x:c>
       <x:c r="H102" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -13687,7 +13687,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O102" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P102">
         <x:v/>
@@ -13711,10 +13711,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W102" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X102" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y102" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -13741,7 +13741,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG102" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH102" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -13776,7 +13776,7 @@
     </x:row>
     <x:row r="103">
       <x:c r="A103" s="1" t="n">
-        <x:v>43305.5741033681</x:v>
+        <x:v>43311.4514891782</x:v>
       </x:c>
       <x:c r="B103" s="3" t="str">
         <x:v>Success</x:v>
@@ -13791,10 +13791,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F103" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G103" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134640_135</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730105007_496</x:v>
       </x:c>
       <x:c r="H103" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -13818,7 +13818,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O103" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P103">
         <x:v/>
@@ -13842,10 +13842,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W103" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X103" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y103" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -13872,7 +13872,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG103" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH103" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -13907,7 +13907,7 @@
     </x:row>
     <x:row r="104">
       <x:c r="A104" s="1" t="n">
-        <x:v>43305.5737472801</x:v>
+        <x:v>43311.4511619213</x:v>
       </x:c>
       <x:c r="B104" s="3" t="str">
         <x:v>Success</x:v>
@@ -13922,10 +13922,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F104" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G104" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134610_134</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104938_495</x:v>
       </x:c>
       <x:c r="H104" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -13949,7 +13949,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O104" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P104">
         <x:v/>
@@ -13973,10 +13973,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W104" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X104" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y104" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -14003,7 +14003,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG104" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH104" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -14038,7 +14038,7 @@
     </x:row>
     <x:row r="105">
       <x:c r="A105" s="1" t="n">
-        <x:v>43305.573677963</x:v>
+        <x:v>43311.4510909722</x:v>
       </x:c>
       <x:c r="B105" s="3" t="str">
         <x:v>Success</x:v>
@@ -14053,10 +14053,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F105" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G105" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134604_133</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104932_494</x:v>
       </x:c>
       <x:c r="H105" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -14080,7 +14080,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O105" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P105">
         <x:v/>
@@ -14104,10 +14104,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W105" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X105" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y105" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -14134,7 +14134,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG105" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH105" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -14169,7 +14169,7 @@
     </x:row>
     <x:row r="106">
       <x:c r="A106" s="1" t="n">
-        <x:v>43305.5734953357</x:v>
+        <x:v>43311.4509197917</x:v>
       </x:c>
       <x:c r="B106" s="3" t="str">
         <x:v>Success</x:v>
@@ -14184,10 +14184,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F106" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G106" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134548_132</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104918_493</x:v>
       </x:c>
       <x:c r="H106" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -14211,7 +14211,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O106" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P106">
         <x:v/>
@@ -14235,10 +14235,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W106" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X106" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y106" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -14265,7 +14265,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG106" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH106" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -14300,7 +14300,7 @@
     </x:row>
     <x:row r="107">
       <x:c r="A107" s="1" t="n">
-        <x:v>43305.5723716667</x:v>
+        <x:v>43311.4506770602</x:v>
       </x:c>
       <x:c r="B107" s="3" t="str">
         <x:v>Success</x:v>
@@ -14315,10 +14315,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F107" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G107" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134406_131</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104857_492</x:v>
       </x:c>
       <x:c r="H107" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -14342,7 +14342,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O107" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P107">
         <x:v/>
@@ -14366,10 +14366,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W107" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X107" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y107" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -14396,7 +14396,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG107" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH107" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -14431,7 +14431,7 @@
     </x:row>
     <x:row r="108">
       <x:c r="A108" s="1" t="n">
-        <x:v>43305.5720110185</x:v>
+        <x:v>43311.4504227662</x:v>
       </x:c>
       <x:c r="B108" s="3" t="str">
         <x:v>Success</x:v>
@@ -14446,10 +14446,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F108" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G108" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134339_130</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104834_491</x:v>
       </x:c>
       <x:c r="H108" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -14473,7 +14473,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O108" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P108">
         <x:v/>
@@ -14497,10 +14497,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W108" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X108" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y108" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -14527,7 +14527,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG108" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH108" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -14562,7 +14562,7 @@
     </x:row>
     <x:row r="109">
       <x:c r="A109" s="1" t="n">
-        <x:v>43305.5718757755</x:v>
+        <x:v>43311.45029375</x:v>
       </x:c>
       <x:c r="B109" s="3" t="str">
         <x:v>Success</x:v>
@@ -14577,10 +14577,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F109" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G109" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134328_129</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104823_490</x:v>
       </x:c>
       <x:c r="H109" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -14604,7 +14604,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O109" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P109">
         <x:v/>
@@ -14628,10 +14628,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W109" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X109" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y109" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -14658,7 +14658,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG109" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH109" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -14693,7 +14693,7 @@
     </x:row>
     <x:row r="110">
       <x:c r="A110" s="1" t="n">
-        <x:v>43305.5716610069</x:v>
+        <x:v>43311.450154456</x:v>
       </x:c>
       <x:c r="B110" s="3" t="str">
         <x:v>Success</x:v>
@@ -14708,10 +14708,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F110" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G110" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134309_128</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104811_489</x:v>
       </x:c>
       <x:c r="H110" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -14735,7 +14735,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O110" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P110">
         <x:v/>
@@ -14759,10 +14759,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W110" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X110" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y110" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -14789,7 +14789,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG110" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH110" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -14824,7 +14824,7 @@
     </x:row>
     <x:row r="111">
       <x:c r="A111" s="1" t="n">
-        <x:v>43305.5713262037</x:v>
+        <x:v>43311.4499544444</x:v>
       </x:c>
       <x:c r="B111" s="3" t="str">
         <x:v>Success</x:v>
@@ -14839,10 +14839,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F111" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G111" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134241_127</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104754_488</x:v>
       </x:c>
       <x:c r="H111" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -14866,7 +14866,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O111" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P111">
         <x:v/>
@@ -14890,10 +14890,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W111" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X111" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y111" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -14920,7 +14920,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG111" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH111" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -14955,7 +14955,7 @@
     </x:row>
     <x:row r="112">
       <x:c r="A112" s="1" t="n">
-        <x:v>43305.5710900116</x:v>
+        <x:v>43311.4497241898</x:v>
       </x:c>
       <x:c r="B112" s="3" t="str">
         <x:v>Success</x:v>
@@ -14970,10 +14970,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F112" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G112" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134220_126</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104734_487</x:v>
       </x:c>
       <x:c r="H112" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -14997,7 +14997,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O112" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P112">
         <x:v/>
@@ -15021,10 +15021,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W112" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X112" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y112" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -15051,7 +15051,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG112" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH112" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -15086,7 +15086,7 @@
     </x:row>
     <x:row r="113">
       <x:c r="A113" s="1" t="n">
-        <x:v>43305.5700008333</x:v>
+        <x:v>43311.4488475694</x:v>
       </x:c>
       <x:c r="B113" s="3" t="str">
         <x:v>Success</x:v>
@@ -15101,10 +15101,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F113" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G113" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134045_125</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104617_486</x:v>
       </x:c>
       <x:c r="H113" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -15128,7 +15128,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O113" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P113">
         <x:v/>
@@ -15152,10 +15152,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W113" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X113" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y113" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -15182,7 +15182,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG113" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH113" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -15217,7 +15217,7 @@
     </x:row>
     <x:row r="114">
       <x:c r="A114" s="1" t="n">
-        <x:v>43305.5696567245</x:v>
+        <x:v>43311.4485301852</x:v>
       </x:c>
       <x:c r="B114" s="3" t="str">
         <x:v>Success</x:v>
@@ -15232,10 +15232,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F114" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G114" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134016_124</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104551_485</x:v>
       </x:c>
       <x:c r="H114" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -15259,7 +15259,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O114" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P114">
         <x:v/>
@@ -15283,10 +15283,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W114" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X114" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y114" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -15313,7 +15313,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG114" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH114" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -15348,7 +15348,7 @@
     </x:row>
     <x:row r="115">
       <x:c r="A115" s="1" t="n">
-        <x:v>43305.5695572454</x:v>
+        <x:v>43311.4484490162</x:v>
       </x:c>
       <x:c r="B115" s="3" t="str">
         <x:v>Success</x:v>
@@ -15363,10 +15363,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F115" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G115" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724134007_123</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104543_484</x:v>
       </x:c>
       <x:c r="H115" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -15390,7 +15390,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O115" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P115">
         <x:v/>
@@ -15414,10 +15414,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W115" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X115" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y115" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -15444,7 +15444,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG115" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH115" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -15479,7 +15479,7 @@
     </x:row>
     <x:row r="116">
       <x:c r="A116" s="1" t="n">
-        <x:v>43305.5694539931</x:v>
+        <x:v>43311.4483515856</x:v>
       </x:c>
       <x:c r="B116" s="3" t="str">
         <x:v>Success</x:v>
@@ -15494,10 +15494,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F116" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G116" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133958_122</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104535_483</x:v>
       </x:c>
       <x:c r="H116" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -15521,7 +15521,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O116" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P116">
         <x:v/>
@@ -15545,10 +15545,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W116" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X116" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y116" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -15575,7 +15575,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG116" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH116" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -15610,7 +15610,7 @@
     </x:row>
     <x:row r="117">
       <x:c r="A117" s="1" t="n">
-        <x:v>43305.5692918287</x:v>
+        <x:v>43311.4481947454</x:v>
       </x:c>
       <x:c r="B117" s="3" t="str">
         <x:v>Success</x:v>
@@ -15625,10 +15625,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F117" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G117" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133944_121</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104522_482</x:v>
       </x:c>
       <x:c r="H117" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -15652,7 +15652,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O117" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P117">
         <x:v/>
@@ -15676,10 +15676,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W117" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X117" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y117" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -15706,7 +15706,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG117" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH117" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -15741,7 +15741,7 @@
     </x:row>
     <x:row r="118">
       <x:c r="A118" s="1" t="n">
-        <x:v>43305.567335787</x:v>
+        <x:v>43311.4480765857</x:v>
       </x:c>
       <x:c r="B118" s="3" t="str">
         <x:v>Success</x:v>
@@ -15756,10 +15756,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F118" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G118" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133656_120</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104512_481</x:v>
       </x:c>
       <x:c r="H118" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -15783,7 +15783,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O118" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P118">
         <x:v/>
@@ -15807,10 +15807,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W118" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X118" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y118" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -15837,7 +15837,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG118" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH118" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -15872,7 +15872,7 @@
     </x:row>
     <x:row r="119">
       <x:c r="A119" s="1" t="n">
-        <x:v>43305.5670700347</x:v>
+        <x:v>43311.4478618056</x:v>
       </x:c>
       <x:c r="B119" s="3" t="str">
         <x:v>Success</x:v>
@@ -15887,10 +15887,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F119" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G119" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133633_119</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104453_480</x:v>
       </x:c>
       <x:c r="H119" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -15914,7 +15914,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O119" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P119">
         <x:v/>
@@ -15938,10 +15938,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W119" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X119" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y119" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -15968,7 +15968,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG119" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH119" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -16003,7 +16003,7 @@
     </x:row>
     <x:row r="120">
       <x:c r="A120" s="1" t="n">
-        <x:v>43305.5668864468</x:v>
+        <x:v>43311.4477062153</x:v>
       </x:c>
       <x:c r="B120" s="3" t="str">
         <x:v>Success</x:v>
@@ -16018,10 +16018,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F120" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G120" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133617_118</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104440_479</x:v>
       </x:c>
       <x:c r="H120" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -16045,7 +16045,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O120" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P120">
         <x:v/>
@@ -16069,10 +16069,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W120" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X120" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y120" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -16099,7 +16099,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG120" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH120" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -16134,7 +16134,7 @@
     </x:row>
     <x:row r="121">
       <x:c r="A121" s="1" t="n">
-        <x:v>43305.5665820139</x:v>
+        <x:v>43311.4474889468</x:v>
       </x:c>
       <x:c r="B121" s="3" t="str">
         <x:v>Success</x:v>
@@ -16149,10 +16149,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F121" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G121" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133551_117</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104421_478</x:v>
       </x:c>
       <x:c r="H121" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -16176,7 +16176,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O121" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P121">
         <x:v/>
@@ -16200,10 +16200,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W121" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X121" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y121" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -16230,7 +16230,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG121" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH121" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -16265,7 +16265,7 @@
     </x:row>
     <x:row r="122">
       <x:c r="A122" s="1" t="n">
-        <x:v>43305.5663739931</x:v>
+        <x:v>43311.4473213542</x:v>
       </x:c>
       <x:c r="B122" s="3" t="str">
         <x:v>Success</x:v>
@@ -16280,10 +16280,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F122" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G122" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133533_116</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104407_477</x:v>
       </x:c>
       <x:c r="H122" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -16307,7 +16307,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O122" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P122">
         <x:v/>
@@ -16331,10 +16331,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W122" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X122" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y122" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -16361,7 +16361,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG122" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH122" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -16396,7 +16396,7 @@
     </x:row>
     <x:row r="123">
       <x:c r="A123" s="1" t="n">
-        <x:v>43305.5662792245</x:v>
+        <x:v>43311.4472225579</x:v>
       </x:c>
       <x:c r="B123" s="3" t="str">
         <x:v>Success</x:v>
@@ -16411,10 +16411,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F123" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G123" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133525_115</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104358_476</x:v>
       </x:c>
       <x:c r="H123" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -16438,7 +16438,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O123" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P123">
         <x:v/>
@@ -16462,10 +16462,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W123" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X123" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y123" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -16492,7 +16492,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG123" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH123" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -16527,7 +16527,7 @@
     </x:row>
     <x:row r="124">
       <x:c r="A124" s="1" t="n">
-        <x:v>43305.5660968634</x:v>
+        <x:v>43311.4470626852</x:v>
       </x:c>
       <x:c r="B124" s="3" t="str">
         <x:v>Success</x:v>
@@ -16542,10 +16542,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F124" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G124" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133508_114</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104344_475</x:v>
       </x:c>
       <x:c r="H124" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -16569,7 +16569,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O124" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P124">
         <x:v/>
@@ -16593,10 +16593,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W124" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X124" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y124" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -16623,7 +16623,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG124" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH124" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -16658,7 +16658,7 @@
     </x:row>
     <x:row r="125">
       <x:c r="A125" s="1" t="n">
-        <x:v>43305.5660238426</x:v>
+        <x:v>43311.4470015046</x:v>
       </x:c>
       <x:c r="B125" s="3" t="str">
         <x:v>Success</x:v>
@@ -16673,10 +16673,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F125" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G125" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133502_113</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104339_474</x:v>
       </x:c>
       <x:c r="H125" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -16700,7 +16700,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O125" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P125">
         <x:v/>
@@ -16724,10 +16724,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W125" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X125" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y125" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -16754,7 +16754,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG125" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH125" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -16789,7 +16789,7 @@
     </x:row>
     <x:row r="126">
       <x:c r="A126" s="1" t="n">
-        <x:v>43305.5657603588</x:v>
+        <x:v>43311.4467629167</x:v>
       </x:c>
       <x:c r="B126" s="3" t="str">
         <x:v>Success</x:v>
@@ -16804,10 +16804,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F126" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G126" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133439_112</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104318_473</x:v>
       </x:c>
       <x:c r="H126" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -16831,7 +16831,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O126" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P126">
         <x:v/>
@@ -16855,10 +16855,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W126" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X126" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y126" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -16885,7 +16885,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG126" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH126" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -16920,7 +16920,7 @@
     </x:row>
     <x:row r="127">
       <x:c r="A127" s="1" t="n">
-        <x:v>43305.5654900694</x:v>
+        <x:v>43311.4465090741</x:v>
       </x:c>
       <x:c r="B127" s="3" t="str">
         <x:v>Success</x:v>
@@ -16935,10 +16935,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F127" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G127" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133416_111</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104251_472</x:v>
       </x:c>
       <x:c r="H127" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -16962,7 +16962,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O127" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P127">
         <x:v/>
@@ -16986,10 +16986,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W127" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X127" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y127" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -17016,7 +17016,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG127" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH127" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -17051,7 +17051,7 @@
     </x:row>
     <x:row r="128">
       <x:c r="A128" s="1" t="n">
-        <x:v>43305.5651464005</x:v>
+        <x:v>43311.4460148727</x:v>
       </x:c>
       <x:c r="B128" s="3" t="str">
         <x:v>Success</x:v>
@@ -17066,10 +17066,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F128" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G128" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133346_110</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104214_471</x:v>
       </x:c>
       <x:c r="H128" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -17093,7 +17093,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O128" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P128">
         <x:v/>
@@ -17117,10 +17117,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W128" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X128" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y128" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -17147,7 +17147,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG128" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH128" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -17182,7 +17182,7 @@
     </x:row>
     <x:row r="129">
       <x:c r="A129" s="1" t="n">
-        <x:v>43305.5647519329</x:v>
+        <x:v>43311.4456880903</x:v>
       </x:c>
       <x:c r="B129" s="3" t="str">
         <x:v>Success</x:v>
@@ -17197,10 +17197,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F129" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G129" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133311_109</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104145_470</x:v>
       </x:c>
       <x:c r="H129" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -17224,7 +17224,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O129" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P129">
         <x:v/>
@@ -17248,10 +17248,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W129" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X129" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y129" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -17278,7 +17278,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG129" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH129" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -17313,7 +17313,7 @@
     </x:row>
     <x:row r="130">
       <x:c r="A130" s="1" t="n">
-        <x:v>43305.5643603588</x:v>
+        <x:v>43311.4454583218</x:v>
       </x:c>
       <x:c r="B130" s="3" t="str">
         <x:v>Success</x:v>
@@ -17328,10 +17328,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F130" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G130" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133238_108</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104125_469</x:v>
       </x:c>
       <x:c r="H130" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -17355,7 +17355,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O130" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P130">
         <x:v/>
@@ -17379,10 +17379,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W130" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X130" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y130" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -17409,7 +17409,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG130" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH130" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -17444,7 +17444,7 @@
     </x:row>
     <x:row r="131">
       <x:c r="A131" s="1" t="n">
-        <x:v>43305.5632579051</x:v>
+        <x:v>43311.4453200579</x:v>
       </x:c>
       <x:c r="B131" s="3" t="str">
         <x:v>Success</x:v>
@@ -17459,10 +17459,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F131" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G131" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133103_107</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104114_468</x:v>
       </x:c>
       <x:c r="H131" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -17486,7 +17486,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O131" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P131">
         <x:v/>
@@ -17510,10 +17510,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W131" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X131" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y131" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -17540,7 +17540,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG131" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH131" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -17575,7 +17575,7 @@
     </x:row>
     <x:row r="132">
       <x:c r="A132" s="1" t="n">
-        <x:v>43305.5629338889</x:v>
+        <x:v>43311.4450543403</x:v>
       </x:c>
       <x:c r="B132" s="3" t="str">
         <x:v>Success</x:v>
@@ -17590,10 +17590,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F132" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G132" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133035_106</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104050_467</x:v>
       </x:c>
       <x:c r="H132" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -17617,7 +17617,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O132" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P132">
         <x:v/>
@@ -17641,10 +17641,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W132" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X132" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y132" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -17671,7 +17671,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG132" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH132" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -17706,7 +17706,7 @@
     </x:row>
     <x:row r="133">
       <x:c r="A133" s="1" t="n">
-        <x:v>43305.5628237269</x:v>
+        <x:v>43311.4449027662</x:v>
       </x:c>
       <x:c r="B133" s="3" t="str">
         <x:v>Success</x:v>
@@ -17721,10 +17721,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F133" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G133" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724133026_105</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104038_466</x:v>
       </x:c>
       <x:c r="H133" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -17748,7 +17748,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O133" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P133">
         <x:v/>
@@ -17772,10 +17772,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W133" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X133" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y133" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -17802,7 +17802,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG133" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH133" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -17837,7 +17837,7 @@
     </x:row>
     <x:row r="134">
       <x:c r="A134" s="1" t="n">
-        <x:v>43305.5623966319</x:v>
+        <x:v>43311.4444922801</x:v>
       </x:c>
       <x:c r="B134" s="3" t="str">
         <x:v>Success</x:v>
@@ -17852,10 +17852,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F134" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G134" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132949_104</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730104002_465</x:v>
       </x:c>
       <x:c r="H134" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -17879,7 +17879,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O134" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P134">
         <x:v/>
@@ -17903,10 +17903,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W134" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X134" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y134" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -17933,7 +17933,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG134" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH134" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -17968,7 +17968,7 @@
     </x:row>
     <x:row r="135">
       <x:c r="A135" s="1" t="n">
-        <x:v>43305.5621774306</x:v>
+        <x:v>43311.4442922338</x:v>
       </x:c>
       <x:c r="B135" s="3" t="str">
         <x:v>Success</x:v>
@@ -17983,10 +17983,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F135" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G135" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132930_103</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103945_464</x:v>
       </x:c>
       <x:c r="H135" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -18010,7 +18010,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O135" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P135">
         <x:v/>
@@ -18034,10 +18034,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W135" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X135" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y135" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -18064,7 +18064,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG135" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH135" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -18099,7 +18099,7 @@
     </x:row>
     <x:row r="136">
       <x:c r="A136" s="1" t="n">
-        <x:v>43305.5617251389</x:v>
+        <x:v>43311.4438870718</x:v>
       </x:c>
       <x:c r="B136" s="3" t="str">
         <x:v>Success</x:v>
@@ -18114,10 +18114,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F136" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G136" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132851_102</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103910_463</x:v>
       </x:c>
       <x:c r="H136" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -18141,7 +18141,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O136" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P136">
         <x:v/>
@@ -18165,10 +18165,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W136" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X136" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y136" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -18195,7 +18195,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG136" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH136" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -18230,7 +18230,7 @@
     </x:row>
     <x:row r="137">
       <x:c r="A137" s="1" t="n">
-        <x:v>43305.5615627778</x:v>
+        <x:v>43311.4437268981</x:v>
       </x:c>
       <x:c r="B137" s="3" t="str">
         <x:v>Success</x:v>
@@ -18245,10 +18245,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F137" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G137" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132836_101</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103856_462</x:v>
       </x:c>
       <x:c r="H137" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -18272,7 +18272,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O137" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P137">
         <x:v/>
@@ -18296,10 +18296,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W137" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X137" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y137" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -18326,7 +18326,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG137" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH137" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -18361,7 +18361,7 @@
     </x:row>
     <x:row r="138">
       <x:c r="A138" s="1" t="n">
-        <x:v>43305.5593351389</x:v>
+        <x:v>43311.4435307639</x:v>
       </x:c>
       <x:c r="B138" s="3" t="str">
         <x:v>Success</x:v>
@@ -18376,10 +18376,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F138" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G138" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132525_100</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103839_461</x:v>
       </x:c>
       <x:c r="H138" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -18403,7 +18403,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O138" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P138">
         <x:v/>
@@ -18427,10 +18427,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W138" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X138" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y138" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -18457,7 +18457,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG138" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH138" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -18492,7 +18492,7 @@
     </x:row>
     <x:row r="139">
       <x:c r="A139" s="1" t="n">
-        <x:v>43305.5590593634</x:v>
+        <x:v>43311.4433258681</x:v>
       </x:c>
       <x:c r="B139" s="3" t="str">
         <x:v>Success</x:v>
@@ -18507,10 +18507,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F139" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G139" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132500_99</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103821_460</x:v>
       </x:c>
       <x:c r="H139" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -18534,7 +18534,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O139" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P139">
         <x:v/>
@@ -18558,10 +18558,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W139" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X139" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y139" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -18588,7 +18588,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG139" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH139" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -18623,7 +18623,7 @@
     </x:row>
     <x:row r="140">
       <x:c r="A140" s="1" t="n">
-        <x:v>43305.5585507176</x:v>
+        <x:v>43311.4429665972</x:v>
       </x:c>
       <x:c r="B140" s="3" t="str">
         <x:v>Success</x:v>
@@ -18638,10 +18638,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F140" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G140" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132417_98</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103750_459</x:v>
       </x:c>
       <x:c r="H140" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -18665,7 +18665,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O140" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P140">
         <x:v/>
@@ -18689,10 +18689,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W140" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X140" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y140" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -18719,7 +18719,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG140" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH140" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -18754,7 +18754,7 @@
     </x:row>
     <x:row r="141">
       <x:c r="A141" s="1" t="n">
-        <x:v>43305.5582090162</x:v>
+        <x:v>43311.4427068866</x:v>
       </x:c>
       <x:c r="B141" s="3" t="str">
         <x:v>Success</x:v>
@@ -18769,10 +18769,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F141" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G141" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132347_97</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103728_458</x:v>
       </x:c>
       <x:c r="H141" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -18796,7 +18796,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O141" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P141">
         <x:v/>
@@ -18820,10 +18820,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W141" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X141" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y141" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -18850,7 +18850,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG141" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH141" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -18885,7 +18885,7 @@
     </x:row>
     <x:row r="142">
       <x:c r="A142" s="1" t="n">
-        <x:v>43305.5578487153</x:v>
+        <x:v>43311.4423798843</x:v>
       </x:c>
       <x:c r="B142" s="3" t="str">
         <x:v>Success</x:v>
@@ -18900,10 +18900,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F142" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G142" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132316_96</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103659_457</x:v>
       </x:c>
       <x:c r="H142" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -18927,7 +18927,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O142" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P142">
         <x:v/>
@@ -18951,10 +18951,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W142" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X142" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y142" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -18981,7 +18981,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG142" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH142" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -19016,7 +19016,7 @@
     </x:row>
     <x:row r="143">
       <x:c r="A143" s="1" t="n">
-        <x:v>43305.5575521412</x:v>
+        <x:v>43311.442098044</x:v>
       </x:c>
       <x:c r="B143" s="3" t="str">
         <x:v>Success</x:v>
@@ -19031,10 +19031,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F143" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G143" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132250_95</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103635_456</x:v>
       </x:c>
       <x:c r="H143" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -19058,7 +19058,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O143" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P143">
         <x:v/>
@@ -19082,10 +19082,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W143" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X143" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y143" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -19112,7 +19112,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG143" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH143" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -19147,7 +19147,7 @@
     </x:row>
     <x:row r="144">
       <x:c r="A144" s="1" t="n">
-        <x:v>43305.5571793866</x:v>
+        <x:v>43311.4417001273</x:v>
       </x:c>
       <x:c r="B144" s="3" t="str">
         <x:v>Success</x:v>
@@ -19162,10 +19162,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F144" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G144" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132217_94</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103600_455</x:v>
       </x:c>
       <x:c r="H144" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -19189,7 +19189,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O144" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P144">
         <x:v/>
@@ -19213,10 +19213,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W144" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X144" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y144" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -19243,7 +19243,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG144" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH144" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -19278,7 +19278,7 @@
     </x:row>
     <x:row r="145">
       <x:c r="A145" s="1" t="n">
-        <x:v>43305.5570410417</x:v>
+        <x:v>43311.4415828357</x:v>
       </x:c>
       <x:c r="B145" s="3" t="str">
         <x:v>Success</x:v>
@@ -19293,10 +19293,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F145" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G145" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132207_93</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103551_454</x:v>
       </x:c>
       <x:c r="H145" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -19320,7 +19320,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O145" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P145">
         <x:v/>
@@ -19344,10 +19344,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W145" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X145" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y145" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -19374,7 +19374,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG145" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH145" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -19409,7 +19409,7 @@
     </x:row>
     <x:row r="146">
       <x:c r="A146" s="1" t="n">
-        <x:v>43305.5568362384</x:v>
+        <x:v>43311.4414123843</x:v>
       </x:c>
       <x:c r="B146" s="3" t="str">
         <x:v>Success</x:v>
@@ -19424,10 +19424,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F146" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G146" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132149_92</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103536_453</x:v>
       </x:c>
       <x:c r="H146" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -19451,7 +19451,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O146" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P146">
         <x:v/>
@@ -19475,10 +19475,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W146" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X146" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y146" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -19505,7 +19505,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG146" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH146" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -19540,7 +19540,7 @@
     </x:row>
     <x:row r="147">
       <x:c r="A147" s="1" t="n">
-        <x:v>43305.5565703241</x:v>
+        <x:v>43311.4410819676</x:v>
       </x:c>
       <x:c r="B147" s="3" t="str">
         <x:v>Success</x:v>
@@ -19555,10 +19555,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F147" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G147" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132126_91</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103507_452</x:v>
       </x:c>
       <x:c r="H147" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -19582,7 +19582,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O147" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P147">
         <x:v/>
@@ -19606,10 +19606,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W147" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X147" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y147" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -19636,7 +19636,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG147" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH147" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -19671,7 +19671,7 @@
     </x:row>
     <x:row r="148">
       <x:c r="A148" s="1" t="n">
-        <x:v>43305.5564679282</x:v>
+        <x:v>43311.4409185417</x:v>
       </x:c>
       <x:c r="B148" s="3" t="str">
         <x:v>Success</x:v>
@@ -19686,10 +19686,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F148" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G148" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132117_90</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103453_451</x:v>
       </x:c>
       <x:c r="H148" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -19713,7 +19713,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O148" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P148">
         <x:v/>
@@ -19737,10 +19737,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W148" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X148" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y148" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -19767,7 +19767,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG148" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH148" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -19802,7 +19802,7 @@
     </x:row>
     <x:row r="149">
       <x:c r="A149" s="1" t="n">
-        <x:v>43305.5562462269</x:v>
+        <x:v>43311.4396416667</x:v>
       </x:c>
       <x:c r="B149" s="3" t="str">
         <x:v>Success</x:v>
@@ -19817,10 +19817,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F149" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G149" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132057_89</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103303_450</x:v>
       </x:c>
       <x:c r="H149" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -19844,7 +19844,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O149" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P149">
         <x:v/>
@@ -19868,10 +19868,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W149" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X149" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y149" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -19898,7 +19898,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG149" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH149" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -19933,7 +19933,7 @@
     </x:row>
     <x:row r="150">
       <x:c r="A150" s="1" t="n">
-        <x:v>43305.5560466319</x:v>
+        <x:v>43311.4394549884</x:v>
       </x:c>
       <x:c r="B150" s="3" t="str">
         <x:v>Success</x:v>
@@ -19948,10 +19948,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F150" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G150" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132039_88</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103247_449</x:v>
       </x:c>
       <x:c r="H150" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -19975,7 +19975,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O150" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P150">
         <x:v/>
@@ -19999,10 +19999,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W150" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X150" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y150" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -20029,7 +20029,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG150" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH150" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -20064,7 +20064,7 @@
     </x:row>
     <x:row r="151">
       <x:c r="A151" s="1" t="n">
-        <x:v>43305.5558792708</x:v>
+        <x:v>43311.4392699421</x:v>
       </x:c>
       <x:c r="B151" s="3" t="str">
         <x:v>Success</x:v>
@@ -20079,10 +20079,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F151" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G151" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132025_87</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103231_448</x:v>
       </x:c>
       <x:c r="H151" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -20106,7 +20106,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O151" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P151">
         <x:v/>
@@ -20130,10 +20130,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W151" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X151" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y151" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -20160,7 +20160,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG151" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH151" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -20195,7 +20195,7 @@
     </x:row>
     <x:row r="152">
       <x:c r="A152" s="1" t="n">
-        <x:v>43305.5556668171</x:v>
+        <x:v>43311.4390359606</x:v>
       </x:c>
       <x:c r="B152" s="3" t="str">
         <x:v>Success</x:v>
@@ -20210,10 +20210,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F152" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G152" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724132007_86</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103211_447</x:v>
       </x:c>
       <x:c r="H152" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -20237,7 +20237,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O152" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P152">
         <x:v/>
@@ -20261,10 +20261,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W152" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X152" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y152" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -20291,7 +20291,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG152" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH152" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -20326,7 +20326,7 @@
     </x:row>
     <x:row r="153">
       <x:c r="A153" s="1" t="n">
-        <x:v>43305.5555124537</x:v>
+        <x:v>43311.4388390162</x:v>
       </x:c>
       <x:c r="B153" s="3" t="str">
         <x:v>Success</x:v>
@@ -20341,10 +20341,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F153" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G153" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131954_85</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103154_446</x:v>
       </x:c>
       <x:c r="H153" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -20368,7 +20368,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O153" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P153">
         <x:v/>
@@ -20392,10 +20392,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W153" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X153" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y153" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -20422,7 +20422,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG153" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH153" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -20457,7 +20457,7 @@
     </x:row>
     <x:row r="154">
       <x:c r="A154" s="1" t="n">
-        <x:v>43305.5553774653</x:v>
+        <x:v>43311.4386839815</x:v>
       </x:c>
       <x:c r="B154" s="3" t="str">
         <x:v>Success</x:v>
@@ -20472,10 +20472,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F154" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G154" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131943_84</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103140_445</x:v>
       </x:c>
       <x:c r="H154" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -20499,7 +20499,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O154" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P154">
         <x:v/>
@@ -20523,10 +20523,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W154" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X154" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y154" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -20553,7 +20553,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG154" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH154" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -20588,7 +20588,7 @@
     </x:row>
     <x:row r="155">
       <x:c r="A155" s="1" t="n">
-        <x:v>43305.5552269329</x:v>
+        <x:v>43311.4385390278</x:v>
       </x:c>
       <x:c r="B155" s="3" t="str">
         <x:v>Success</x:v>
@@ -20603,10 +20603,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F155" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G155" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131930_83</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103128_444</x:v>
       </x:c>
       <x:c r="H155" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -20630,7 +20630,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O155" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P155">
         <x:v/>
@@ -20654,10 +20654,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W155" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X155" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y155" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -20684,7 +20684,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG155" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH155" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -20719,7 +20719,7 @@
     </x:row>
     <x:row r="156">
       <x:c r="A156" s="1" t="n">
-        <x:v>43305.555155625</x:v>
+        <x:v>43311.438476794</x:v>
       </x:c>
       <x:c r="B156" s="3" t="str">
         <x:v>Success</x:v>
@@ -20734,10 +20734,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F156" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G156" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131924_82</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103123_443</x:v>
       </x:c>
       <x:c r="H156" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -20761,7 +20761,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O156" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P156">
         <x:v/>
@@ -20785,10 +20785,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W156" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X156" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y156" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -20815,7 +20815,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG156" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH156" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -20850,7 +20850,7 @@
     </x:row>
     <x:row r="157">
       <x:c r="A157" s="1" t="n">
-        <x:v>43305.5549768634</x:v>
+        <x:v>43311.438224919</x:v>
       </x:c>
       <x:c r="B157" s="3" t="str">
         <x:v>Success</x:v>
@@ -20865,10 +20865,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F157" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G157" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131907_81</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103101_442</x:v>
       </x:c>
       <x:c r="H157" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -20892,7 +20892,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O157" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P157">
         <x:v/>
@@ -20916,10 +20916,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W157" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X157" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y157" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -20946,7 +20946,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG157" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH157" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -20981,7 +20981,7 @@
     </x:row>
     <x:row r="158">
       <x:c r="A158" s="1" t="n">
-        <x:v>43305.554838287</x:v>
+        <x:v>43311.4381269676</x:v>
       </x:c>
       <x:c r="B158" s="3" t="str">
         <x:v>Success</x:v>
@@ -20996,10 +20996,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F158" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G158" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131856_80</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103052_441</x:v>
       </x:c>
       <x:c r="H158" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -21023,7 +21023,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O158" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P158">
         <x:v/>
@@ -21047,10 +21047,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W158" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X158" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y158" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -21077,7 +21077,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG158" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH158" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -21112,7 +21112,7 @@
     </x:row>
     <x:row r="159">
       <x:c r="A159" s="1" t="n">
-        <x:v>43305.55467375</x:v>
+        <x:v>43311.437956875</x:v>
       </x:c>
       <x:c r="B159" s="3" t="str">
         <x:v>Success</x:v>
@@ -21127,10 +21127,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F159" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G159" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131842_79</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103038_440</x:v>
       </x:c>
       <x:c r="H159" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -21154,7 +21154,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O159" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P159">
         <x:v/>
@@ -21178,10 +21178,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W159" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X159" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y159" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -21208,7 +21208,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG159" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH159" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -21243,7 +21243,7 @@
     </x:row>
     <x:row r="160">
       <x:c r="A160" s="1" t="n">
-        <x:v>43305.5544792824</x:v>
+        <x:v>43311.4377402546</x:v>
       </x:c>
       <x:c r="B160" s="3" t="str">
         <x:v>Success</x:v>
@@ -21258,10 +21258,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F160" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G160" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131825_78</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103019_439</x:v>
       </x:c>
       <x:c r="H160" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -21285,7 +21285,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O160" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P160">
         <x:v/>
@@ -21309,10 +21309,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W160" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X160" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y160" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -21339,7 +21339,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG160" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH160" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -21374,7 +21374,7 @@
     </x:row>
     <x:row r="161">
       <x:c r="A161" s="1" t="n">
-        <x:v>43305.5542870023</x:v>
+        <x:v>43311.4375559028</x:v>
       </x:c>
       <x:c r="B161" s="3" t="str">
         <x:v>Success</x:v>
@@ -21389,10 +21389,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F161" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G161" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131808_77</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730103003_438</x:v>
       </x:c>
       <x:c r="H161" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -21416,7 +21416,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O161" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P161">
         <x:v/>
@@ -21440,10 +21440,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W161" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X161" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y161" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -21470,7 +21470,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG161" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH161" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -21505,7 +21505,7 @@
     </x:row>
     <x:row r="162">
       <x:c r="A162" s="1" t="n">
-        <x:v>43305.5527250231</x:v>
+        <x:v>43311.4369980093</x:v>
       </x:c>
       <x:c r="B162" s="3" t="str">
         <x:v>Success</x:v>
@@ -21520,10 +21520,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F162" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G162" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131553_76</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102914_437</x:v>
       </x:c>
       <x:c r="H162" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -21547,7 +21547,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O162" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P162">
         <x:v/>
@@ -21571,10 +21571,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W162" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X162" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y162" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -21601,7 +21601,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG162" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH162" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -21636,7 +21636,7 @@
     </x:row>
     <x:row r="163">
       <x:c r="A163" s="1" t="n">
-        <x:v>43305.5524762384</x:v>
+        <x:v>43311.4367878009</x:v>
       </x:c>
       <x:c r="B163" s="3" t="str">
         <x:v>Success</x:v>
@@ -21651,10 +21651,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F163" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G163" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131532_75</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102856_436</x:v>
       </x:c>
       <x:c r="H163" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -21678,7 +21678,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O163" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P163">
         <x:v/>
@@ -21702,10 +21702,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W163" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X163" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y163" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -21732,7 +21732,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG163" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH163" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -21767,7 +21767,7 @@
     </x:row>
     <x:row r="164">
       <x:c r="A164" s="1" t="n">
-        <x:v>43305.5523685417</x:v>
+        <x:v>43311.4366958218</x:v>
       </x:c>
       <x:c r="B164" s="3" t="str">
         <x:v>Success</x:v>
@@ -21782,10 +21782,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F164" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G164" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131523_74</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102849_435</x:v>
       </x:c>
       <x:c r="H164" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -21809,7 +21809,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O164" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P164">
         <x:v/>
@@ -21833,10 +21833,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W164" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X164" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y164" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -21863,7 +21863,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG164" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH164" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -21898,7 +21898,7 @@
     </x:row>
     <x:row r="165">
       <x:c r="A165" s="1" t="n">
-        <x:v>43305.5522647454</x:v>
+        <x:v>43311.4366026736</x:v>
       </x:c>
       <x:c r="B165" s="3" t="str">
         <x:v>Success</x:v>
@@ -21913,10 +21913,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F165" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G165" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131514_73</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102840_434</x:v>
       </x:c>
       <x:c r="H165" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -21940,7 +21940,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O165" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P165">
         <x:v/>
@@ -21964,10 +21964,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W165" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X165" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y165" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -21994,7 +21994,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG165" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH165" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -22029,7 +22029,7 @@
     </x:row>
     <x:row r="166">
       <x:c r="A166" s="1" t="n">
-        <x:v>43305.5521216088</x:v>
+        <x:v>43311.4364737731</x:v>
       </x:c>
       <x:c r="B166" s="3" t="str">
         <x:v>Success</x:v>
@@ -22044,10 +22044,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F166" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G166" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131501_72</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102829_433</x:v>
       </x:c>
       <x:c r="H166" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -22071,7 +22071,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O166" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P166">
         <x:v/>
@@ -22095,10 +22095,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W166" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X166" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y166" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -22125,7 +22125,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG166" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH166" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -22160,7 +22160,7 @@
     </x:row>
     <x:row r="167">
       <x:c r="A167" s="1" t="n">
-        <x:v>43305.551911875</x:v>
+        <x:v>43311.4362888426</x:v>
       </x:c>
       <x:c r="B167" s="3" t="str">
         <x:v>Success</x:v>
@@ -22175,10 +22175,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F167" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G167" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131443_71</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102813_432</x:v>
       </x:c>
       <x:c r="H167" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -22202,7 +22202,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O167" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P167">
         <x:v/>
@@ -22226,10 +22226,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W167" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X167" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y167" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -22256,7 +22256,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG167" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH167" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -22291,7 +22291,7 @@
     </x:row>
     <x:row r="168">
       <x:c r="A168" s="1" t="n">
-        <x:v>43305.5518064815</x:v>
+        <x:v>43311.4361743519</x:v>
       </x:c>
       <x:c r="B168" s="3" t="str">
         <x:v>Success</x:v>
@@ -22306,10 +22306,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F168" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G168" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131434_70</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102803_431</x:v>
       </x:c>
       <x:c r="H168" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -22333,7 +22333,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O168" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P168">
         <x:v/>
@@ -22357,10 +22357,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W168" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X168" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y168" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -22387,7 +22387,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG168" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH168" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -22422,7 +22422,7 @@
     </x:row>
     <x:row r="169">
       <x:c r="A169" s="1" t="n">
-        <x:v>43305.551701088</x:v>
+        <x:v>43311.4360698264</x:v>
       </x:c>
       <x:c r="B169" s="3" t="str">
         <x:v>Success</x:v>
@@ -22437,10 +22437,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F169" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G169" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131425_69</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102755_430</x:v>
       </x:c>
       <x:c r="H169" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -22464,7 +22464,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O169" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P169">
         <x:v/>
@@ -22488,10 +22488,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W169" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X169" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y169" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -22518,7 +22518,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG169" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH169" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -22553,7 +22553,7 @@
     </x:row>
     <x:row r="170">
       <x:c r="A170" s="1" t="n">
-        <x:v>43305.5515067708</x:v>
+        <x:v>43311.4358867361</x:v>
       </x:c>
       <x:c r="B170" s="3" t="str">
         <x:v>Success</x:v>
@@ -22568,10 +22568,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F170" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G170" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131407_68</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102739_429</x:v>
       </x:c>
       <x:c r="H170" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -22595,7 +22595,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O170" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P170">
         <x:v/>
@@ -22619,10 +22619,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W170" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X170" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y170" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -22649,7 +22649,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG170" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH170" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -22684,7 +22684,7 @@
     </x:row>
     <x:row r="171">
       <x:c r="A171" s="1" t="n">
-        <x:v>43305.5513482407</x:v>
+        <x:v>43311.4357422454</x:v>
       </x:c>
       <x:c r="B171" s="3" t="str">
         <x:v>Success</x:v>
@@ -22699,10 +22699,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F171" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G171" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131355_67</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102726_428</x:v>
       </x:c>
       <x:c r="H171" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -22726,7 +22726,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O171" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P171">
         <x:v/>
@@ -22750,10 +22750,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W171" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X171" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y171" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -22780,7 +22780,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG171" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH171" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -22815,7 +22815,7 @@
     </x:row>
     <x:row r="172">
       <x:c r="A172" s="1" t="n">
-        <x:v>43305.5511065741</x:v>
+        <x:v>43311.4354935417</x:v>
       </x:c>
       <x:c r="B172" s="3" t="str">
         <x:v>Success</x:v>
@@ -22830,10 +22830,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F172" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G172" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131334_66</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102705_427</x:v>
       </x:c>
       <x:c r="H172" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -22857,7 +22857,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O172" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P172">
         <x:v/>
@@ -22881,10 +22881,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W172" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X172" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y172" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -22911,7 +22911,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG172" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH172" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -22946,7 +22946,7 @@
     </x:row>
     <x:row r="173">
       <x:c r="A173" s="1" t="n">
-        <x:v>43305.5509840972</x:v>
+        <x:v>43311.4353703472</x:v>
       </x:c>
       <x:c r="B173" s="3" t="str">
         <x:v>Success</x:v>
@@ -22961,10 +22961,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F173" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G173" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131323_65</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102654_426</x:v>
       </x:c>
       <x:c r="H173" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -22988,7 +22988,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O173" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P173">
         <x:v/>
@@ -23012,10 +23012,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W173" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X173" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y173" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -23042,7 +23042,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG173" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH173" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -23077,7 +23077,7 @@
     </x:row>
     <x:row r="174">
       <x:c r="A174" s="1" t="n">
-        <x:v>43305.5508096412</x:v>
+        <x:v>43311.4352015972</x:v>
       </x:c>
       <x:c r="B174" s="3" t="str">
         <x:v>Success</x:v>
@@ -23092,10 +23092,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F174" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G174" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131308_64</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102639_425</x:v>
       </x:c>
       <x:c r="H174" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -23119,7 +23119,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O174" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P174">
         <x:v/>
@@ -23143,10 +23143,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W174" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X174" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y174" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -23173,7 +23173,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG174" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH174" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -23208,7 +23208,7 @@
     </x:row>
     <x:row r="175">
       <x:c r="A175" s="1" t="n">
-        <x:v>43305.5507308333</x:v>
+        <x:v>43311.4351146065</x:v>
       </x:c>
       <x:c r="B175" s="3" t="str">
         <x:v>Success</x:v>
@@ -23223,10 +23223,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F175" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G175" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131301_63</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102632_424</x:v>
       </x:c>
       <x:c r="H175" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -23250,7 +23250,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O175" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P175">
         <x:v/>
@@ -23274,10 +23274,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W175" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X175" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y175" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -23304,7 +23304,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG175" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH175" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -23339,7 +23339,7 @@
     </x:row>
     <x:row r="176">
       <x:c r="A176" s="1" t="n">
-        <x:v>43305.5505920949</x:v>
+        <x:v>43311.4349697685</x:v>
       </x:c>
       <x:c r="B176" s="3" t="str">
         <x:v>Success</x:v>
@@ -23354,10 +23354,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F176" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G176" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131249_62</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102619_423</x:v>
       </x:c>
       <x:c r="H176" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -23381,7 +23381,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O176" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P176">
         <x:v/>
@@ -23405,10 +23405,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W176" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X176" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y176" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -23435,7 +23435,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG176" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH176" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -23470,7 +23470,7 @@
     </x:row>
     <x:row r="177">
       <x:c r="A177" s="1" t="n">
-        <x:v>43305.5502947454</x:v>
+        <x:v>43311.4346102546</x:v>
       </x:c>
       <x:c r="B177" s="3" t="str">
         <x:v>Success</x:v>
@@ -23485,10 +23485,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F177" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G177" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131223_61</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102548_422</x:v>
       </x:c>
       <x:c r="H177" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -23512,7 +23512,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O177" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P177">
         <x:v/>
@@ -23536,10 +23536,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W177" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X177" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y177" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -23566,7 +23566,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG177" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH177" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -23601,7 +23601,7 @@
     </x:row>
     <x:row r="178">
       <x:c r="A178" s="1" t="n">
-        <x:v>43305.5500813426</x:v>
+        <x:v>43311.4343829167</x:v>
       </x:c>
       <x:c r="B178" s="3" t="str">
         <x:v>Success</x:v>
@@ -23616,10 +23616,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F178" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G178" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131204_60</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102529_421</x:v>
       </x:c>
       <x:c r="H178" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -23643,7 +23643,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O178" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P178">
         <x:v/>
@@ -23667,10 +23667,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W178" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X178" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y178" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -23697,7 +23697,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG178" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH178" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -23732,7 +23732,7 @@
     </x:row>
     <x:row r="179">
       <x:c r="A179" s="1" t="n">
-        <x:v>43305.5498830671</x:v>
+        <x:v>43311.4341497107</x:v>
       </x:c>
       <x:c r="B179" s="3" t="str">
         <x:v>Success</x:v>
@@ -23747,10 +23747,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F179" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G179" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58180724131147_59</x:v>
+        <x:v>180730102413_418_18436180730102506_419180730102509_420</x:v>
       </x:c>
       <x:c r="H179" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -23774,7 +23774,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O179" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P179">
         <x:v/>
@@ -23798,10 +23798,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W179" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X179" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y179" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -23828,7 +23828,7 @@
         <x:v/>
       </x:c>
       <x:c r="AG179" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH179" s="3" t="str">
         <x:v>Copied successfully.</x:v>
@@ -23863,7 +23863,7 @@
     </x:row>
     <x:row r="180">
       <x:c r="A180" s="1" t="n">
-        <x:v>43305.5498304977</x:v>
+        <x:v>43311.4341071759</x:v>
       </x:c>
       <x:c r="B180" s="3" t="str">
         <x:v>Warning</x:v>
@@ -23878,10 +23878,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F180" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G180" s="3" t="str">
-        <x:v>180724131115_57_7148180724131145_58</x:v>
+        <x:v>180730102413_418_18436180730102506_419</x:v>
       </x:c>
       <x:c r="H180" s="3" t="str">
         <x:v>Copy SharePoint Content</x:v>
@@ -23905,7 +23905,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O180" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P180">
         <x:v/>
@@ -23929,10 +23929,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W180" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X180" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y180" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -23948,10 +23948,7 @@
       </x:c>
       <x:c r="AC180" s="3" t="str">
         <x:v>The Insane Mode does not support copying ASPX pages. The copy will continue without using Insane Mode.
-Version 8.0.2 (Assembly 8.0.2.0, Build 2071)
-Framework Version: 4.0.30319.42000
-OS Version: Microsoft Windows NT 6.2.9200.0
-Processor count: 8
+Version 8.2.2 (Assembly 8.2.2.0, Build 2100)
 =========================
 [0] AN-058-032 (RetryFailed: False) --- Sharegate.Common.Exceptions.SGNotSupportedException: The Insane Mode does not support copying ASPX pages. The copy will continue without using Insane Mode.
 --------------------
@@ -23962,7 +23959,7 @@
       </x:c>
       <x:c r="AE180" s="3" t="str">
         <x:v>&lt;?xml version="1.0" encoding="utf-16"?&gt;
-&lt;PropertyTemplate xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" Id="a4a78bb8-6bbc-419e-86b5-12da7082c351" ListId="00000000-0000-0000-0000-000000000000" Name="Copy now" CheckInType="CopySource" ModerationStatusType="CopySource" KeepAuthorsAndTimestamps="true" CopyVersionHistory="true" CopyUserAlerts="false" CopyPermissions="false" CorrectLinks="true" FlattenFolders="false" CopyWebParts="false" TemplateType="Copy" HasVersionsLimit="true" VersionsLimit="1" ContentFileExtension="" ContentFileExtensionFilterType="AllExtensions"&gt;
+&lt;PropertyTemplate xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" Id="9969de13-c4ae-488c-854b-93ce0bb183e0" ListId="00000000-0000-0000-0000-000000000000" Name="Copy now" CheckInType="CopySource" ModerationStatusType="CopySource" KeepAuthorsAndTimestamps="true" CopyVersionHistory="true" CopyUserAlerts="false" CopyPermissions="false" CorrectLinks="true" FlattenFolders="false" CopyWebParts="false" TemplateType="Copy" HasVersionsLimit="true" VersionsLimit="1" ContentFileExtension="" ContentFileExtensionFilterType="AllExtensions"&gt;
   &lt;ContentTypes&gt;
     &lt;ContentTypes ParentContentTypeId="0x010108" Name="Wiki-side"&gt;
       &lt;Columns&gt;
@@ -24014,13 +24011,14 @@
     &lt;/ContentTypes&gt;
   &lt;/ContentTypes&gt;
   &lt;MigrationOptions MigrationMode="Normal" ItemExistsAutomationAction="Overwrite" /&gt;
+  &lt;IsDefaultOptions&gt;true&lt;/IsDefaultOptions&gt;
 &lt;/PropertyTemplate&gt;</x:v>
       </x:c>
       <x:c r="AF180">
         <x:v/>
       </x:c>
       <x:c r="AG180" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH180" s="3" t="str">
         <x:v>The Insane Mode does not support copying ASPX pages. The copy will continue without using Insane Mode.</x:v>
@@ -24055,7 +24053,7 @@
     </x:row>
     <x:row r="181">
       <x:c r="A181" s="1" t="n">
-        <x:v>43305.5494884491</x:v>
+        <x:v>43311.4334896296</x:v>
       </x:c>
       <x:c r="B181" s="3" t="str">
         <x:v>Success</x:v>
@@ -24070,10 +24068,10 @@
         <x:v>Copy</x:v>
       </x:c>
       <x:c r="F181" s="3" t="str">
-        <x:v>180724-3</x:v>
+        <x:v>180730-1</x:v>
       </x:c>
       <x:c r="G181" s="3" t="str">
-        <x:v>180724131115_57_7148</x:v>
+        <x:v>180730102413_418_18436</x:v>
       </x:c>
       <x:c r="H181" s="3" t="str">
         <x:v>Copy Site Objects</x:v>
@@ -24097,7 +24095,7 @@
         <x:v>9cb1faf9-0d31-46d2-8247-02c607cc3d40</x:v>
       </x:c>
       <x:c r="O181" s="3" t="str">
-        <x:v>LBNET\NICD</x:v>
+        <x:v>LBNET\nicd</x:v>
       </x:c>
       <x:c r="P181">
         <x:v/>
@@ -24121,10 +24119,10 @@
         <x:v>Skade</x:v>
       </x:c>
       <x:c r="W181" s="3" t="str">
-        <x:v>Ansvar</x:v>
+        <x:v>AnsvarWebsider</x:v>
       </x:c>
       <x:c r="X181" s="3" t="str">
-        <x:v>e6e2ebe0-7107-4e1c-99c0-b3c9d68e368b</x:v>
+        <x:v>d7865cbc-8294-4f0e-8f52-69c6bfca7725</x:v>
       </x:c>
       <x:c r="Y181" s="3" t="str">
         <x:v>admnicd@lb.dk</x:v>
@@ -24151,8 +24149,8 @@
 ContentFrom : 
 ContentTo : 
 CopyPermissions : False
-NewTitle : Ansvar
-NewUrlName : Ansvar
+NewTitle : AnsvarWebsider
+NewUrlName : AnsvarWebsider
 IsRenamed : True
 IsNewRootWeb : False
 CopyFeatures : False
@@ -24196,7 +24194,7 @@
 </x:v>
       </x:c>
       <x:c r="AG181" s="3" t="str">
-        <x:v>8.0.2</x:v>
+        <x:v>8.2.2</x:v>
       </x:c>
       <x:c r="AH181" s="3" t="str">
         <x:v>Copied successfully.</x:v>
